--- a/AsanCFG.xlsx
+++ b/AsanCFG.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NABEEL\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NABEEL\Desktop\AsanCompiler\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB50FA99-3334-458E-BFD2-4431A5D79AB0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE86C8BB-DA53-4F31-8EA1-085F0ECDF36A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{6880E40A-521A-4FFB-930A-E7F9EF58FF7E}"/>
   </bookViews>
@@ -19,7 +19,6 @@
     <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$E$179</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -711,7 +710,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -748,6 +747,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -761,7 +772,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -808,18 +819,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1136,8 +1157,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{433D985D-E3BA-44F9-AF30-B50456217A32}">
   <dimension ref="A1:E179"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A92" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D104" sqref="D104"/>
+    <sheetView tabSelected="1" topLeftCell="A109" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B120" sqref="B120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1166,10 +1187,10 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="17">
+      <c r="A2" s="18">
         <v>1</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="18" t="s">
         <v>96</v>
       </c>
       <c r="C2" t="s">
@@ -1178,23 +1199,23 @@
       <c r="D2" t="s">
         <v>167</v>
       </c>
-      <c r="E2" s="17" t="s">
+      <c r="E2" s="18" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="17"/>
-      <c r="B3" s="17"/>
+      <c r="A3" s="18"/>
+      <c r="B3" s="18"/>
       <c r="C3" t="s">
         <v>93</v>
       </c>
-      <c r="E3" s="17"/>
+      <c r="E3" s="18"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="17">
+      <c r="A4" s="18">
         <v>2</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="18" t="s">
         <v>97</v>
       </c>
       <c r="C4" s="6" t="s">
@@ -1206,122 +1227,122 @@
       <c r="E4" s="8"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="17"/>
-      <c r="B5" s="17"/>
+      <c r="A5" s="18"/>
+      <c r="B5" s="18"/>
       <c r="C5" t="s">
         <v>1</v>
       </c>
       <c r="D5" t="s">
         <v>168</v>
       </c>
-      <c r="E5" s="17" t="s">
+      <c r="E5" s="18" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="17"/>
-      <c r="B6" s="17"/>
+      <c r="A6" s="18"/>
+      <c r="B6" s="18"/>
       <c r="C6" t="s">
         <v>2</v>
       </c>
       <c r="D6" t="s">
         <v>169</v>
       </c>
-      <c r="E6" s="17"/>
+      <c r="E6" s="18"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="17"/>
-      <c r="B7" s="17"/>
+      <c r="A7" s="18"/>
+      <c r="B7" s="18"/>
       <c r="C7" t="s">
         <v>3</v>
       </c>
       <c r="D7" t="s">
         <v>170</v>
       </c>
-      <c r="E7" s="17"/>
+      <c r="E7" s="18"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="17"/>
-      <c r="B8" s="17"/>
+      <c r="A8" s="18"/>
+      <c r="B8" s="18"/>
       <c r="C8" t="s">
         <v>4</v>
       </c>
       <c r="D8" t="s">
         <v>171</v>
       </c>
-      <c r="E8" s="17"/>
+      <c r="E8" s="18"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="17"/>
-      <c r="B9" s="17"/>
+      <c r="A9" s="18"/>
+      <c r="B9" s="18"/>
       <c r="C9" t="s">
         <v>5</v>
       </c>
       <c r="D9" t="s">
         <v>172</v>
       </c>
-      <c r="E9" s="17"/>
+      <c r="E9" s="18"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="17"/>
-      <c r="B10" s="17"/>
+      <c r="A10" s="18"/>
+      <c r="B10" s="18"/>
       <c r="C10" t="s">
         <v>6</v>
       </c>
       <c r="D10" t="s">
         <v>173</v>
       </c>
-      <c r="E10" s="17"/>
+      <c r="E10" s="18"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="17"/>
-      <c r="B11" s="17"/>
+      <c r="A11" s="18"/>
+      <c r="B11" s="18"/>
       <c r="C11" t="s">
         <v>7</v>
       </c>
       <c r="D11" t="s">
         <v>174</v>
       </c>
-      <c r="E11" s="17"/>
+      <c r="E11" s="18"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="17"/>
-      <c r="B12" s="17"/>
+      <c r="A12" s="18"/>
+      <c r="B12" s="18"/>
       <c r="C12" t="s">
         <v>8</v>
       </c>
       <c r="D12" t="s">
         <v>175</v>
       </c>
-      <c r="E12" s="17"/>
+      <c r="E12" s="18"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="17"/>
-      <c r="B13" s="17"/>
+      <c r="A13" s="18"/>
+      <c r="B13" s="18"/>
       <c r="C13" t="s">
         <v>9</v>
       </c>
       <c r="D13" t="s">
         <v>176</v>
       </c>
-      <c r="E13" s="17"/>
+      <c r="E13" s="18"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="17"/>
-      <c r="B14" s="17"/>
+      <c r="A14" s="18"/>
+      <c r="B14" s="18"/>
       <c r="C14" t="s">
         <v>10</v>
       </c>
       <c r="D14" t="s">
         <v>18</v>
       </c>
-      <c r="E14" s="17"/>
+      <c r="E14" s="18"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="17">
+      <c r="A15" s="18">
         <v>3</v>
       </c>
-      <c r="B15" s="17" t="s">
+      <c r="B15" s="18" t="s">
         <v>98</v>
       </c>
       <c r="C15" t="s">
@@ -1330,35 +1351,35 @@
       <c r="D15" t="s">
         <v>11</v>
       </c>
-      <c r="E15" s="17"/>
+      <c r="E15" s="18"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="17"/>
-      <c r="B16" s="17"/>
+      <c r="A16" s="18"/>
+      <c r="B16" s="18"/>
       <c r="C16" t="s">
         <v>12</v>
       </c>
       <c r="D16" t="s">
         <v>178</v>
       </c>
-      <c r="E16" s="17"/>
+      <c r="E16" s="18"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="17"/>
-      <c r="B17" s="17"/>
+      <c r="A17" s="18"/>
+      <c r="B17" s="18"/>
       <c r="C17" t="s">
         <v>13</v>
       </c>
       <c r="D17" t="s">
         <v>177</v>
       </c>
-      <c r="E17" s="17"/>
+      <c r="E17" s="18"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="17">
+      <c r="A18" s="18">
         <v>4</v>
       </c>
-      <c r="B18" s="17" t="s">
+      <c r="B18" s="18" t="s">
         <v>99</v>
       </c>
       <c r="C18" t="s">
@@ -1367,21 +1388,21 @@
       <c r="D18" t="s">
         <v>178</v>
       </c>
-      <c r="E18" s="21" t="s">
+      <c r="E18" s="19" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="17"/>
-      <c r="B19" s="17"/>
+      <c r="A19" s="18"/>
+      <c r="B19" s="18"/>
       <c r="C19" t="s">
         <v>93</v>
       </c>
-      <c r="E19" s="21"/>
+      <c r="E19" s="19"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="7"/>
-      <c r="B20" s="17" t="s">
+      <c r="B20" s="18" t="s">
         <v>12</v>
       </c>
       <c r="C20" s="6" t="s">
@@ -1391,154 +1412,154 @@
       <c r="E20" s="8"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="17">
+      <c r="A21" s="18">
         <v>5</v>
       </c>
-      <c r="B21" s="17"/>
+      <c r="B21" s="18"/>
       <c r="C21" t="s">
         <v>1</v>
       </c>
       <c r="D21" t="s">
         <v>168</v>
       </c>
-      <c r="E21" s="17" t="s">
+      <c r="E21" s="18" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="17"/>
-      <c r="B22" s="17"/>
-      <c r="C22" t="s">
+      <c r="A22" s="18"/>
+      <c r="B22" s="18"/>
+      <c r="C22" s="25" t="s">
         <v>2</v>
       </c>
       <c r="D22" t="s">
         <v>169</v>
       </c>
-      <c r="E22" s="17"/>
+      <c r="E22" s="18"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="17"/>
-      <c r="B23" s="17"/>
-      <c r="C23" t="s">
+      <c r="A23" s="18"/>
+      <c r="B23" s="18"/>
+      <c r="C23" s="25" t="s">
         <v>3</v>
       </c>
       <c r="D23" t="s">
         <v>170</v>
       </c>
-      <c r="E23" s="17"/>
+      <c r="E23" s="18"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="17"/>
-      <c r="B24" s="17"/>
-      <c r="C24" t="s">
+      <c r="A24" s="18"/>
+      <c r="B24" s="18"/>
+      <c r="C24" s="25" t="s">
         <v>4</v>
       </c>
       <c r="D24" t="s">
         <v>171</v>
       </c>
-      <c r="E24" s="17"/>
+      <c r="E24" s="18"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="17"/>
-      <c r="B25" s="17"/>
-      <c r="C25" t="s">
+      <c r="A25" s="18"/>
+      <c r="B25" s="18"/>
+      <c r="C25" s="25" t="s">
         <v>5</v>
       </c>
       <c r="D25" t="s">
         <v>172</v>
       </c>
-      <c r="E25" s="17"/>
+      <c r="E25" s="18"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="17"/>
-      <c r="B26" s="17"/>
-      <c r="C26" t="s">
+      <c r="A26" s="18"/>
+      <c r="B26" s="18"/>
+      <c r="C26" s="25" t="s">
         <v>6</v>
       </c>
       <c r="D26" t="s">
         <v>173</v>
       </c>
-      <c r="E26" s="17"/>
+      <c r="E26" s="18"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="17"/>
-      <c r="B27" s="17"/>
+      <c r="A27" s="18"/>
+      <c r="B27" s="18"/>
       <c r="C27" t="s">
         <v>15</v>
       </c>
       <c r="D27" t="s">
         <v>180</v>
       </c>
-      <c r="E27" s="17"/>
+      <c r="E27" s="18"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="17"/>
-      <c r="B28" s="17"/>
+      <c r="A28" s="18"/>
+      <c r="B28" s="18"/>
       <c r="C28" t="s">
         <v>16</v>
       </c>
       <c r="D28" t="s">
         <v>181</v>
       </c>
-      <c r="E28" s="17"/>
+      <c r="E28" s="18"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="17"/>
-      <c r="B29" s="17"/>
-      <c r="C29" t="s">
+      <c r="A29" s="18"/>
+      <c r="B29" s="18"/>
+      <c r="C29" s="25" t="s">
         <v>7</v>
       </c>
       <c r="D29" t="s">
         <v>174</v>
       </c>
-      <c r="E29" s="17"/>
+      <c r="E29" s="18"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="17"/>
-      <c r="B30" s="17"/>
+      <c r="A30" s="18"/>
+      <c r="B30" s="18"/>
       <c r="C30" t="s">
         <v>8</v>
       </c>
       <c r="D30" t="s">
         <v>175</v>
       </c>
-      <c r="E30" s="17"/>
+      <c r="E30" s="18"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="17"/>
-      <c r="B31" s="17"/>
+      <c r="A31" s="18"/>
+      <c r="B31" s="18"/>
       <c r="C31" t="s">
         <v>9</v>
       </c>
       <c r="D31" t="s">
         <v>18</v>
       </c>
-      <c r="E31" s="17"/>
+      <c r="E31" s="18"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="17">
+      <c r="A32" s="18">
         <v>6</v>
       </c>
-      <c r="B32" s="17" t="s">
+      <c r="B32" s="18" t="s">
         <v>100</v>
       </c>
       <c r="C32" t="s">
         <v>93</v>
       </c>
-      <c r="E32" s="17" t="s">
+      <c r="E32" s="18" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="17"/>
-      <c r="B33" s="17"/>
+      <c r="A33" s="18"/>
+      <c r="B33" s="18"/>
       <c r="C33" t="s">
         <v>17</v>
       </c>
       <c r="D33" t="s">
         <v>183</v>
       </c>
-      <c r="E33" s="17"/>
+      <c r="E33" s="18"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="20">
@@ -1610,10 +1631,10 @@
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="17">
+      <c r="A39" s="18">
         <v>10</v>
       </c>
-      <c r="B39" s="17" t="s">
+      <c r="B39" s="18" t="s">
         <v>102</v>
       </c>
       <c r="C39" t="s">
@@ -1622,17 +1643,17 @@
       <c r="D39" t="s">
         <v>187</v>
       </c>
-      <c r="E39" s="17" t="s">
+      <c r="E39" s="18" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="17"/>
-      <c r="B40" s="17"/>
+      <c r="A40" s="18"/>
+      <c r="B40" s="18"/>
       <c r="C40" t="s">
         <v>93</v>
       </c>
-      <c r="E40" s="17"/>
+      <c r="E40" s="18"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="3">
@@ -1652,10 +1673,10 @@
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="17">
+      <c r="A42" s="18">
         <v>12</v>
       </c>
-      <c r="B42" s="17" t="s">
+      <c r="B42" s="18" t="s">
         <v>104</v>
       </c>
       <c r="C42" t="s">
@@ -1664,17 +1685,17 @@
       <c r="D42" t="s">
         <v>190</v>
       </c>
-      <c r="E42" s="17" t="s">
+      <c r="E42" s="18" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" s="17"/>
-      <c r="B43" s="17"/>
+      <c r="A43" s="18"/>
+      <c r="B43" s="18"/>
       <c r="C43" t="s">
         <v>93</v>
       </c>
-      <c r="E43" s="17"/>
+      <c r="E43" s="18"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="3">
@@ -1694,10 +1715,10 @@
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" s="17">
+      <c r="A45" s="18">
         <v>14</v>
       </c>
-      <c r="B45" s="17" t="s">
+      <c r="B45" s="18" t="s">
         <v>106</v>
       </c>
       <c r="C45" t="s">
@@ -1706,17 +1727,17 @@
       <c r="D45" t="s">
         <v>191</v>
       </c>
-      <c r="E45" s="17" t="s">
+      <c r="E45" s="18" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" s="17"/>
-      <c r="B46" s="17"/>
+      <c r="A46" s="18"/>
+      <c r="B46" s="18"/>
       <c r="C46" t="s">
         <v>93</v>
       </c>
-      <c r="E46" s="17"/>
+      <c r="E46" s="18"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="3">
@@ -1736,10 +1757,10 @@
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" s="17">
+      <c r="A48" s="18">
         <v>16</v>
       </c>
-      <c r="B48" s="17" t="s">
+      <c r="B48" s="18" t="s">
         <v>108</v>
       </c>
       <c r="C48" t="s">
@@ -1748,17 +1769,17 @@
       <c r="D48" t="s">
         <v>192</v>
       </c>
-      <c r="E48" s="17" t="s">
+      <c r="E48" s="18" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" s="17"/>
-      <c r="B49" s="17"/>
+      <c r="A49" s="18"/>
+      <c r="B49" s="18"/>
       <c r="C49" t="s">
         <v>93</v>
       </c>
-      <c r="E49" s="17"/>
+      <c r="E49" s="18"/>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="3">
@@ -1778,10 +1799,10 @@
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" s="17">
+      <c r="A51" s="18">
         <v>18</v>
       </c>
-      <c r="B51" s="17" t="s">
+      <c r="B51" s="18" t="s">
         <v>110</v>
       </c>
       <c r="C51" t="s">
@@ -1790,23 +1811,23 @@
       <c r="D51" t="s">
         <v>193</v>
       </c>
-      <c r="E51" s="17" t="s">
+      <c r="E51" s="18" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52" s="17"/>
-      <c r="B52" s="17"/>
+      <c r="A52" s="18"/>
+      <c r="B52" s="18"/>
       <c r="C52" t="s">
         <v>93</v>
       </c>
-      <c r="E52" s="17"/>
+      <c r="E52" s="18"/>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53" s="17">
+      <c r="A53" s="18">
         <v>19</v>
       </c>
-      <c r="B53" s="17" t="s">
+      <c r="B53" s="18" t="s">
         <v>111</v>
       </c>
       <c r="C53" t="s">
@@ -1815,48 +1836,48 @@
       <c r="D53" t="s">
         <v>199</v>
       </c>
-      <c r="E53" s="17" t="s">
+      <c r="E53" s="18" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A54" s="17"/>
-      <c r="B54" s="17"/>
+      <c r="A54" s="18"/>
+      <c r="B54" s="18"/>
       <c r="C54" t="s">
         <v>31</v>
       </c>
       <c r="D54" t="s">
         <v>188</v>
       </c>
-      <c r="E54" s="17"/>
+      <c r="E54" s="18"/>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A55" s="17"/>
-      <c r="B55" s="17"/>
+      <c r="A55" s="18"/>
+      <c r="B55" s="18"/>
       <c r="C55" t="s">
         <v>32</v>
       </c>
       <c r="D55" t="s">
         <v>189</v>
       </c>
-      <c r="E55" s="17"/>
+      <c r="E55" s="18"/>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A56" s="17"/>
-      <c r="B56" s="17"/>
+      <c r="A56" s="18"/>
+      <c r="B56" s="18"/>
       <c r="C56" t="s">
         <v>33</v>
       </c>
       <c r="D56" t="s">
         <v>18</v>
       </c>
-      <c r="E56" s="17"/>
+      <c r="E56" s="18"/>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A57" s="17">
+      <c r="A57" s="18">
         <v>20</v>
       </c>
-      <c r="B57" s="17" t="s">
+      <c r="B57" s="18" t="s">
         <v>19</v>
       </c>
       <c r="C57" t="s">
@@ -1868,8 +1889,8 @@
       <c r="E57" s="5"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A58" s="17"/>
-      <c r="B58" s="17"/>
+      <c r="A58" s="18"/>
+      <c r="B58" s="18"/>
       <c r="C58" t="s">
         <v>35</v>
       </c>
@@ -1879,8 +1900,8 @@
       <c r="E58" s="5"/>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A59" s="17"/>
-      <c r="B59" s="17"/>
+      <c r="A59" s="18"/>
+      <c r="B59" s="18"/>
       <c r="C59" t="s">
         <v>36</v>
       </c>
@@ -1890,8 +1911,8 @@
       <c r="E59" s="5"/>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A60" s="17"/>
-      <c r="B60" s="17"/>
+      <c r="A60" s="18"/>
+      <c r="B60" s="18"/>
       <c r="C60" t="s">
         <v>37</v>
       </c>
@@ -1901,10 +1922,10 @@
       <c r="E60" s="5"/>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A61" s="17">
+      <c r="A61" s="18">
         <v>21</v>
       </c>
-      <c r="B61" s="17" t="s">
+      <c r="B61" s="18" t="s">
         <v>112</v>
       </c>
       <c r="C61" t="s">
@@ -1913,18 +1934,18 @@
       <c r="E61" s="5"/>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A62" s="17"/>
-      <c r="B62" s="17"/>
+      <c r="A62" s="18"/>
+      <c r="B62" s="18"/>
       <c r="C62" t="s">
         <v>19</v>
       </c>
       <c r="E62" s="5"/>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A63" s="17">
+      <c r="A63" s="18">
         <v>22</v>
       </c>
-      <c r="B63" s="17" t="s">
+      <c r="B63" s="18" t="s">
         <v>113</v>
       </c>
       <c r="C63" t="s">
@@ -1933,8 +1954,8 @@
       <c r="E63" s="5"/>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A64" s="17"/>
-      <c r="B64" s="17"/>
+      <c r="A64" s="18"/>
+      <c r="B64" s="18"/>
       <c r="C64" t="s">
         <v>93</v>
       </c>
@@ -1954,10 +1975,10 @@
       <c r="E65" s="13"/>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A66" s="19">
+      <c r="A66" s="21">
         <v>24</v>
       </c>
-      <c r="B66" s="19" t="s">
+      <c r="B66" s="21" t="s">
         <v>116</v>
       </c>
       <c r="C66" s="12" t="s">
@@ -1967,8 +1988,8 @@
       <c r="E66" s="13"/>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A67" s="19"/>
-      <c r="B67" s="19"/>
+      <c r="A67" s="21"/>
+      <c r="B67" s="21"/>
       <c r="C67" s="12" t="s">
         <v>40</v>
       </c>
@@ -1976,8 +1997,8 @@
       <c r="E67" s="13"/>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A68" s="19"/>
-      <c r="B68" s="19"/>
+      <c r="A68" s="21"/>
+      <c r="B68" s="21"/>
       <c r="C68" s="12" t="s">
         <v>203</v>
       </c>
@@ -1985,8 +2006,8 @@
       <c r="E68" s="13"/>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A69" s="19"/>
-      <c r="B69" s="19"/>
+      <c r="A69" s="21"/>
+      <c r="B69" s="21"/>
       <c r="C69" s="12" t="s">
         <v>11</v>
       </c>
@@ -1994,10 +2015,10 @@
       <c r="E69" s="13"/>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A70" s="19">
+      <c r="A70" s="21">
         <v>25</v>
       </c>
-      <c r="B70" s="19" t="s">
+      <c r="B70" s="21" t="s">
         <v>114</v>
       </c>
       <c r="C70" s="12" t="s">
@@ -2007,17 +2028,17 @@
       <c r="E70" s="13"/>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A71" s="19"/>
-      <c r="B71" s="19"/>
+      <c r="A71" s="21"/>
+      <c r="B71" s="21"/>
       <c r="C71" s="12"/>
       <c r="D71" s="12"/>
       <c r="E71" s="13"/>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A72" s="18">
+      <c r="A72" s="22">
         <v>26</v>
       </c>
-      <c r="B72" s="18" t="s">
+      <c r="B72" s="22" t="s">
         <v>115</v>
       </c>
       <c r="C72" s="9" t="s">
@@ -2027,8 +2048,8 @@
       <c r="E72" s="10"/>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A73" s="18"/>
-      <c r="B73" s="18"/>
+      <c r="A73" s="22"/>
+      <c r="B73" s="22"/>
       <c r="C73" s="9" t="s">
         <v>11</v>
       </c>
@@ -2036,8 +2057,8 @@
       <c r="E73" s="10"/>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A74" s="18"/>
-      <c r="B74" s="18"/>
+      <c r="A74" s="22"/>
+      <c r="B74" s="22"/>
       <c r="C74" s="9" t="s">
         <v>93</v>
       </c>
@@ -2069,10 +2090,10 @@
       <c r="E76" s="5"/>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A77" s="17">
+      <c r="A77" s="18">
         <v>29</v>
       </c>
-      <c r="B77" s="17" t="s">
+      <c r="B77" s="18" t="s">
         <v>120</v>
       </c>
       <c r="C77" t="s">
@@ -2081,26 +2102,26 @@
       <c r="E77" s="5"/>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A78" s="17"/>
-      <c r="B78" s="17"/>
+      <c r="A78" s="18"/>
+      <c r="B78" s="18"/>
       <c r="C78" t="s">
         <v>1</v>
       </c>
       <c r="E78" s="5"/>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A79" s="17"/>
-      <c r="B79" s="17"/>
+      <c r="A79" s="18"/>
+      <c r="B79" s="18"/>
       <c r="C79" t="s">
         <v>44</v>
       </c>
       <c r="E79" s="5"/>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A80" s="17">
+      <c r="A80" s="18">
         <v>30</v>
       </c>
-      <c r="B80" s="17" t="s">
+      <c r="B80" s="18" t="s">
         <v>121</v>
       </c>
       <c r="C80" t="s">
@@ -2109,18 +2130,18 @@
       <c r="E80" s="5"/>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A81" s="17"/>
-      <c r="B81" s="17"/>
+      <c r="A81" s="18"/>
+      <c r="B81" s="18"/>
       <c r="C81" t="s">
         <v>11</v>
       </c>
       <c r="E81" s="5"/>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A82" s="17">
+      <c r="A82" s="18">
         <v>31</v>
       </c>
-      <c r="B82" s="17" t="s">
+      <c r="B82" s="18" t="s">
         <v>122</v>
       </c>
       <c r="C82" t="s">
@@ -2129,18 +2150,18 @@
       <c r="E82" s="5"/>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A83" s="17"/>
-      <c r="B83" s="17"/>
+      <c r="A83" s="18"/>
+      <c r="B83" s="18"/>
       <c r="C83" t="s">
         <v>93</v>
       </c>
       <c r="E83" s="5"/>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A84" s="17">
+      <c r="A84" s="18">
         <v>32</v>
       </c>
-      <c r="B84" s="17" t="s">
+      <c r="B84" s="18" t="s">
         <v>46</v>
       </c>
       <c r="C84" t="s">
@@ -2149,8 +2170,8 @@
       <c r="E84" s="5"/>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A85" s="17"/>
-      <c r="B85" s="17"/>
+      <c r="A85" s="18"/>
+      <c r="B85" s="18"/>
       <c r="C85" t="s">
         <v>124</v>
       </c>
@@ -2181,10 +2202,10 @@
       <c r="E87" s="5"/>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A88" s="17">
+      <c r="A88" s="18">
         <v>35</v>
       </c>
-      <c r="B88" s="17" t="s">
+      <c r="B88" s="18" t="s">
         <v>126</v>
       </c>
       <c r="C88" t="s">
@@ -2193,26 +2214,26 @@
       <c r="E88" s="5"/>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A89" s="17"/>
-      <c r="B89" s="17"/>
+      <c r="A89" s="18"/>
+      <c r="B89" s="18"/>
       <c r="C89" t="s">
         <v>51</v>
       </c>
       <c r="E89" s="5"/>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A90" s="17"/>
-      <c r="B90" s="17"/>
+      <c r="A90" s="18"/>
+      <c r="B90" s="18"/>
       <c r="C90" t="s">
         <v>52</v>
       </c>
       <c r="E90" s="5"/>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A91" s="17">
+      <c r="A91" s="18">
         <v>36</v>
       </c>
-      <c r="B91" s="17" t="s">
+      <c r="B91" s="18" t="s">
         <v>20</v>
       </c>
       <c r="C91" t="s">
@@ -2221,8 +2242,8 @@
       <c r="E91" s="5"/>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A92" s="17"/>
-      <c r="B92" s="17"/>
+      <c r="A92" s="18"/>
+      <c r="B92" s="18"/>
       <c r="C92" t="s">
         <v>53</v>
       </c>
@@ -2241,10 +2262,10 @@
       <c r="E93" s="5"/>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A94" s="17">
+      <c r="A94" s="18">
         <v>38</v>
       </c>
-      <c r="B94" s="17" t="s">
+      <c r="B94" s="18" t="s">
         <v>128</v>
       </c>
       <c r="C94" t="s">
@@ -2253,8 +2274,8 @@
       <c r="E94" s="5"/>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A95" s="17"/>
-      <c r="B95" s="17"/>
+      <c r="A95" s="18"/>
+      <c r="B95" s="18"/>
       <c r="C95" t="s">
         <v>13</v>
       </c>
@@ -2286,7 +2307,7 @@
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" s="15"/>
-      <c r="B98" s="19" t="s">
+      <c r="B98" s="21" t="s">
         <v>214</v>
       </c>
       <c r="C98" s="12" t="s">
@@ -2297,7 +2318,7 @@
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" s="15"/>
-      <c r="B99" s="19"/>
+      <c r="B99" s="21"/>
       <c r="C99" s="12" t="s">
         <v>93</v>
       </c>
@@ -2306,7 +2327,7 @@
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" s="15"/>
-      <c r="B100" s="19" t="s">
+      <c r="B100" s="21" t="s">
         <v>215</v>
       </c>
       <c r="C100" s="12" t="s">
@@ -2317,7 +2338,7 @@
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" s="15"/>
-      <c r="B101" s="19"/>
+      <c r="B101" s="21"/>
       <c r="C101" s="12" t="s">
         <v>93</v>
       </c>
@@ -2337,10 +2358,10 @@
       <c r="E102" s="5"/>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A103" s="17">
+      <c r="A103" s="18">
         <v>42</v>
       </c>
-      <c r="B103" s="17" t="s">
+      <c r="B103" s="18" t="s">
         <v>130</v>
       </c>
       <c r="C103" t="s">
@@ -2349,18 +2370,18 @@
       <c r="E103" s="5"/>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A104" s="17"/>
-      <c r="B104" s="17"/>
+      <c r="A104" s="18"/>
+      <c r="B104" s="18"/>
       <c r="C104" t="s">
         <v>93</v>
       </c>
       <c r="E104" s="5"/>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A105" s="17">
+      <c r="A105" s="18">
         <v>43</v>
       </c>
-      <c r="B105" s="17" t="s">
+      <c r="B105" s="18" t="s">
         <v>131</v>
       </c>
       <c r="C105" t="s">
@@ -2369,15 +2390,15 @@
       <c r="E105" s="5"/>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A106" s="17"/>
-      <c r="B106" s="17"/>
+      <c r="A106" s="18"/>
+      <c r="B106" s="18"/>
       <c r="C106" t="s">
         <v>58</v>
       </c>
       <c r="E106" s="5"/>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A107" s="3">
+      <c r="A107" s="23">
         <v>44</v>
       </c>
       <c r="B107" s="3" t="s">
@@ -2389,10 +2410,10 @@
       <c r="E107" s="5"/>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A108" s="17">
+      <c r="A108" s="18">
         <v>45</v>
       </c>
-      <c r="B108" s="17" t="s">
+      <c r="B108" s="18" t="s">
         <v>133</v>
       </c>
       <c r="C108" s="6" t="s">
@@ -2401,18 +2422,18 @@
       <c r="E108" s="5"/>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A109" s="17"/>
-      <c r="B109" s="17"/>
+      <c r="A109" s="18"/>
+      <c r="B109" s="18"/>
       <c r="C109" t="s">
         <v>93</v>
       </c>
       <c r="E109" s="5"/>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A110" s="17">
+      <c r="A110" s="18">
         <v>46</v>
       </c>
-      <c r="B110" s="17" t="s">
+      <c r="B110" s="18" t="s">
         <v>134</v>
       </c>
       <c r="C110" t="s">
@@ -2421,8 +2442,8 @@
       <c r="E110" s="5"/>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A111" s="17"/>
-      <c r="B111" s="17"/>
+      <c r="A111" s="18"/>
+      <c r="B111" s="18"/>
       <c r="C111" t="s">
         <v>93</v>
       </c>
@@ -2441,10 +2462,10 @@
       <c r="E112" s="5"/>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A113" s="17">
+      <c r="A113" s="18">
         <v>48</v>
       </c>
-      <c r="B113" s="17" t="s">
+      <c r="B113" s="18" t="s">
         <v>135</v>
       </c>
       <c r="C113" t="s">
@@ -2453,8 +2474,8 @@
       <c r="E113" s="5"/>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A114" s="17"/>
-      <c r="B114" s="17"/>
+      <c r="A114" s="18"/>
+      <c r="B114" s="18"/>
       <c r="C114" t="s">
         <v>93</v>
       </c>
@@ -2486,32 +2507,35 @@
       <c r="E116" s="5"/>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A117" s="17"/>
-      <c r="B117" s="17"/>
-      <c r="C117" t="s">
-        <v>93</v>
-      </c>
-      <c r="E117" s="5"/>
+      <c r="A117" s="18">
+        <v>51</v>
+      </c>
+      <c r="B117" s="21" t="s">
+        <v>136</v>
+      </c>
+      <c r="C117" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="D117" s="12"/>
+      <c r="E117" s="13"/>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A118" s="17">
-        <v>51</v>
-      </c>
-      <c r="B118" s="17" t="s">
-        <v>136</v>
-      </c>
-      <c r="C118" t="s">
-        <v>63</v>
-      </c>
-      <c r="E118" s="5"/>
+      <c r="A118" s="18"/>
+      <c r="B118" s="21"/>
+      <c r="C118" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="D118" s="12"/>
+      <c r="E118" s="13"/>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" s="17"/>
-      <c r="B119" s="17"/>
-      <c r="C119" t="s">
-        <v>64</v>
-      </c>
-      <c r="E119" s="5"/>
+      <c r="B119" s="21"/>
+      <c r="C119" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="D119" s="12"/>
+      <c r="E119" s="13"/>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" s="3">
@@ -2586,10 +2610,10 @@
       <c r="E125" s="5"/>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A126" s="17">
+      <c r="A126" s="18">
         <v>58</v>
       </c>
-      <c r="B126" s="17" t="s">
+      <c r="B126" s="18" t="s">
         <v>139</v>
       </c>
       <c r="C126" t="s">
@@ -2598,15 +2622,15 @@
       <c r="E126" s="5"/>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A127" s="17"/>
-      <c r="B127" s="17"/>
+      <c r="A127" s="18"/>
+      <c r="B127" s="18"/>
       <c r="C127" t="s">
         <v>93</v>
       </c>
       <c r="E127" s="5"/>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A128" s="3">
+      <c r="A128" s="23">
         <v>59</v>
       </c>
       <c r="B128" s="3" t="s">
@@ -2618,7 +2642,7 @@
       <c r="E128" s="5"/>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A129" s="3">
+      <c r="A129" s="23">
         <v>60</v>
       </c>
       <c r="B129" s="3" t="s">
@@ -2630,10 +2654,10 @@
       <c r="E129" s="5"/>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A130" s="17">
+      <c r="A130" s="24">
         <v>61</v>
       </c>
-      <c r="B130" s="17" t="s">
+      <c r="B130" s="18" t="s">
         <v>141</v>
       </c>
       <c r="C130" t="s">
@@ -2642,15 +2666,15 @@
       <c r="E130" s="5"/>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A131" s="17"/>
-      <c r="B131" s="17"/>
+      <c r="A131" s="24"/>
+      <c r="B131" s="18"/>
       <c r="C131" t="s">
         <v>74</v>
       </c>
       <c r="E131" s="5"/>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A132" s="3">
+      <c r="A132" s="23">
         <v>62</v>
       </c>
       <c r="B132" s="3" t="s">
@@ -2674,10 +2698,10 @@
       <c r="E133" s="5"/>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A134" s="17">
+      <c r="A134" s="24">
         <v>64</v>
       </c>
-      <c r="B134" s="17" t="s">
+      <c r="B134" s="18" t="s">
         <v>143</v>
       </c>
       <c r="C134" t="s">
@@ -2686,18 +2710,18 @@
       <c r="E134" s="5"/>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A135" s="17"/>
-      <c r="B135" s="17"/>
+      <c r="A135" s="24"/>
+      <c r="B135" s="18"/>
       <c r="C135" t="s">
         <v>93</v>
       </c>
       <c r="E135" s="5"/>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A136" s="17">
+      <c r="A136" s="24">
         <v>65</v>
       </c>
-      <c r="B136" s="17" t="s">
+      <c r="B136" s="18" t="s">
         <v>147</v>
       </c>
       <c r="C136" t="s">
@@ -2706,18 +2730,18 @@
       <c r="E136" s="5"/>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A137" s="17"/>
-      <c r="B137" s="17"/>
+      <c r="A137" s="24"/>
+      <c r="B137" s="18"/>
       <c r="C137" t="s">
         <v>93</v>
       </c>
       <c r="E137" s="5"/>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A138" s="17">
+      <c r="A138" s="18">
         <v>66</v>
       </c>
-      <c r="B138" s="17" t="s">
+      <c r="B138" s="18" t="s">
         <v>145</v>
       </c>
       <c r="C138" t="s">
@@ -2726,24 +2750,24 @@
       <c r="E138" s="5"/>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A139" s="17"/>
-      <c r="B139" s="17"/>
+      <c r="A139" s="18"/>
+      <c r="B139" s="18"/>
       <c r="C139" t="s">
         <v>50</v>
       </c>
       <c r="E139" s="5"/>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A140" s="17"/>
-      <c r="B140" s="17"/>
+      <c r="A140" s="18"/>
+      <c r="B140" s="18"/>
       <c r="C140" t="s">
         <v>52</v>
       </c>
       <c r="E140" s="5"/>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A141" s="17"/>
-      <c r="B141" s="17"/>
+      <c r="A141" s="18"/>
+      <c r="B141" s="18"/>
       <c r="C141" t="s">
         <v>51</v>
       </c>
@@ -2762,10 +2786,10 @@
       <c r="E142" s="5"/>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A143" s="17">
+      <c r="A143" s="18">
         <v>68</v>
       </c>
-      <c r="B143" s="17" t="s">
+      <c r="B143" s="18" t="s">
         <v>82</v>
       </c>
       <c r="C143" t="s">
@@ -2774,15 +2798,15 @@
       <c r="E143" s="5"/>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A144" s="17"/>
-      <c r="B144" s="17"/>
+      <c r="A144" s="18"/>
+      <c r="B144" s="18"/>
       <c r="C144" t="s">
         <v>78</v>
       </c>
       <c r="E144" s="5"/>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A145" s="3">
+      <c r="A145" s="23">
         <v>69</v>
       </c>
       <c r="B145" s="3" t="s">
@@ -2794,10 +2818,10 @@
       <c r="E145" s="5"/>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A146" s="17">
+      <c r="A146" s="24">
         <v>70</v>
       </c>
-      <c r="B146" s="17" t="s">
+      <c r="B146" s="18" t="s">
         <v>149</v>
       </c>
       <c r="C146" t="s">
@@ -2806,15 +2830,15 @@
       <c r="E146" s="5"/>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A147" s="17"/>
-      <c r="B147" s="17"/>
+      <c r="A147" s="24"/>
+      <c r="B147" s="18"/>
       <c r="C147" t="s">
         <v>93</v>
       </c>
       <c r="E147" s="5"/>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A148" s="14">
+      <c r="A148" s="23">
         <v>71</v>
       </c>
       <c r="B148" s="14" t="s">
@@ -2827,7 +2851,7 @@
       <c r="E148" s="13"/>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A149" s="8">
+      <c r="A149" s="23">
         <v>72</v>
       </c>
       <c r="B149" s="8" t="s">
@@ -2840,10 +2864,10 @@
       <c r="E149" s="16"/>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A150" s="17">
+      <c r="A150" s="18">
         <v>73</v>
       </c>
-      <c r="B150" s="17" t="s">
+      <c r="B150" s="18" t="s">
         <v>151</v>
       </c>
       <c r="C150" s="9" t="s">
@@ -2853,8 +2877,8 @@
       <c r="E150" s="10"/>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A151" s="17"/>
-      <c r="B151" s="17"/>
+      <c r="A151" s="18"/>
+      <c r="B151" s="18"/>
       <c r="C151" s="9" t="s">
         <v>93</v>
       </c>
@@ -2862,10 +2886,10 @@
       <c r="E151" s="10"/>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A152" s="17">
+      <c r="A152" s="18">
         <v>74</v>
       </c>
-      <c r="B152" s="17" t="s">
+      <c r="B152" s="18" t="s">
         <v>152</v>
       </c>
       <c r="C152" t="s">
@@ -2874,18 +2898,18 @@
       <c r="E152" s="5"/>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A153" s="17"/>
-      <c r="B153" s="17"/>
+      <c r="A153" s="18"/>
+      <c r="B153" s="18"/>
       <c r="C153" t="s">
         <v>93</v>
       </c>
       <c r="E153" s="5"/>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A154" s="17">
+      <c r="A154" s="18">
         <v>75</v>
       </c>
-      <c r="B154" s="17" t="s">
+      <c r="B154" s="18" t="s">
         <v>153</v>
       </c>
       <c r="C154" t="s">
@@ -2894,16 +2918,16 @@
       <c r="E154" s="5"/>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A155" s="17"/>
-      <c r="B155" s="17"/>
+      <c r="A155" s="18"/>
+      <c r="B155" s="18"/>
       <c r="C155" t="s">
         <v>83</v>
       </c>
       <c r="E155" s="5"/>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A156" s="17"/>
-      <c r="B156" s="17"/>
+      <c r="A156" s="18"/>
+      <c r="B156" s="18"/>
       <c r="C156" t="s">
         <v>1</v>
       </c>
@@ -2922,10 +2946,10 @@
       <c r="E157" s="5"/>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A158" s="17">
+      <c r="A158" s="18">
         <v>77</v>
       </c>
-      <c r="B158" s="17" t="s">
+      <c r="B158" s="18" t="s">
         <v>154</v>
       </c>
       <c r="C158" t="s">
@@ -2934,18 +2958,18 @@
       <c r="E158" s="5"/>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A159" s="17"/>
-      <c r="B159" s="17"/>
+      <c r="A159" s="18"/>
+      <c r="B159" s="18"/>
       <c r="C159" t="s">
         <v>93</v>
       </c>
       <c r="E159" s="5"/>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A160" s="17">
+      <c r="A160" s="18">
         <v>78</v>
       </c>
-      <c r="B160" s="17" t="s">
+      <c r="B160" s="18" t="s">
         <v>155</v>
       </c>
       <c r="C160" t="s">
@@ -2954,15 +2978,15 @@
       <c r="E160" s="5"/>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A161" s="17"/>
-      <c r="B161" s="17"/>
+      <c r="A161" s="18"/>
+      <c r="B161" s="18"/>
       <c r="C161" t="s">
         <v>86</v>
       </c>
       <c r="E161" s="5"/>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A162" s="3">
+      <c r="A162" s="23">
         <v>79</v>
       </c>
       <c r="B162" s="3" t="s">
@@ -2974,10 +2998,10 @@
       <c r="E162" s="5"/>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A163" s="17">
+      <c r="A163" s="18">
         <v>80</v>
       </c>
-      <c r="B163" s="17" t="s">
+      <c r="B163" s="18" t="s">
         <v>157</v>
       </c>
       <c r="C163" t="s">
@@ -2986,42 +3010,42 @@
       <c r="E163" s="5"/>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A164" s="17"/>
-      <c r="B164" s="17"/>
+      <c r="A164" s="18"/>
+      <c r="B164" s="18"/>
       <c r="C164" t="s">
         <v>47</v>
       </c>
       <c r="E164" s="5"/>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A165" s="17"/>
-      <c r="B165" s="17"/>
+      <c r="A165" s="18"/>
+      <c r="B165" s="18"/>
       <c r="C165" t="s">
         <v>158</v>
       </c>
       <c r="E165" s="5"/>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A166" s="17"/>
-      <c r="B166" s="17"/>
+      <c r="A166" s="18"/>
+      <c r="B166" s="18"/>
       <c r="C166" t="s">
         <v>87</v>
       </c>
       <c r="E166" s="5"/>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A167" s="17"/>
-      <c r="B167" s="17"/>
+      <c r="A167" s="18"/>
+      <c r="B167" s="18"/>
       <c r="C167" t="s">
         <v>201</v>
       </c>
       <c r="E167" s="5"/>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A168" s="17">
+      <c r="A168" s="18">
         <v>81</v>
       </c>
-      <c r="B168" s="17" t="s">
+      <c r="B168" s="18" t="s">
         <v>159</v>
       </c>
       <c r="C168" t="s">
@@ -3030,8 +3054,8 @@
       <c r="E168" s="5"/>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A169" s="17"/>
-      <c r="B169" s="17"/>
+      <c r="A169" s="18"/>
+      <c r="B169" s="18"/>
       <c r="C169" t="s">
         <v>87</v>
       </c>
@@ -3050,10 +3074,10 @@
       <c r="E170" s="5"/>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A171" s="17">
+      <c r="A171" s="18">
         <v>83</v>
       </c>
-      <c r="B171" s="17" t="s">
+      <c r="B171" s="18" t="s">
         <v>163</v>
       </c>
       <c r="C171" t="s">
@@ -3062,18 +3086,18 @@
       <c r="E171" s="5"/>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A172" s="17"/>
-      <c r="B172" s="17"/>
+      <c r="A172" s="18"/>
+      <c r="B172" s="18"/>
       <c r="C172" t="s">
         <v>201</v>
       </c>
       <c r="E172" s="5"/>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A173" s="17">
+      <c r="A173" s="18">
         <v>84</v>
       </c>
-      <c r="B173" s="17" t="s">
+      <c r="B173" s="18" t="s">
         <v>164</v>
       </c>
       <c r="C173" t="s">
@@ -3082,18 +3106,18 @@
       <c r="E173" s="5"/>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A174" s="17"/>
-      <c r="B174" s="17"/>
+      <c r="A174" s="18"/>
+      <c r="B174" s="18"/>
       <c r="C174" t="s">
         <v>47</v>
       </c>
       <c r="E174" s="5"/>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A175" s="17">
+      <c r="A175" s="18">
         <v>85</v>
       </c>
-      <c r="B175" s="17" t="s">
+      <c r="B175" s="18" t="s">
         <v>95</v>
       </c>
       <c r="C175" t="s">
@@ -3102,26 +3126,26 @@
       <c r="E175" s="5"/>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A176" s="17"/>
-      <c r="B176" s="17"/>
+      <c r="A176" s="18"/>
+      <c r="B176" s="18"/>
       <c r="C176" t="s">
         <v>94</v>
       </c>
       <c r="E176" s="5"/>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A177" s="17"/>
-      <c r="B177" s="17"/>
+      <c r="A177" s="18"/>
+      <c r="B177" s="18"/>
       <c r="C177" t="s">
         <v>51</v>
       </c>
       <c r="E177" s="5"/>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A178" s="17">
+      <c r="A178" s="18">
         <v>86</v>
       </c>
-      <c r="B178" s="17" t="s">
+      <c r="B178" s="18" t="s">
         <v>94</v>
       </c>
       <c r="C178" t="s">
@@ -3130,28 +3154,93 @@
       <c r="E178" s="5"/>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A179" s="17"/>
-      <c r="B179" s="17"/>
+      <c r="A179" s="18"/>
+      <c r="B179" s="18"/>
       <c r="C179" t="s">
         <v>93</v>
       </c>
       <c r="E179" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="117">
-    <mergeCell ref="E42:E43"/>
-    <mergeCell ref="E45:E46"/>
-    <mergeCell ref="E48:E49"/>
-    <mergeCell ref="E51:E52"/>
-    <mergeCell ref="E53:E56"/>
-    <mergeCell ref="E5:E14"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="E15:E17"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="E21:E31"/>
-    <mergeCell ref="E32:E33"/>
-    <mergeCell ref="E34:E36"/>
-    <mergeCell ref="E39:E40"/>
+  <mergeCells count="115">
+    <mergeCell ref="B4:B14"/>
+    <mergeCell ref="A4:A14"/>
+    <mergeCell ref="B20:B31"/>
+    <mergeCell ref="A171:A172"/>
+    <mergeCell ref="A173:A174"/>
+    <mergeCell ref="A175:A177"/>
+    <mergeCell ref="A178:A179"/>
+    <mergeCell ref="A152:A153"/>
+    <mergeCell ref="A154:A156"/>
+    <mergeCell ref="A158:A159"/>
+    <mergeCell ref="A160:A161"/>
+    <mergeCell ref="A163:A167"/>
+    <mergeCell ref="A168:A169"/>
+    <mergeCell ref="A136:A137"/>
+    <mergeCell ref="A138:A141"/>
+    <mergeCell ref="A143:A144"/>
+    <mergeCell ref="A146:A147"/>
+    <mergeCell ref="A150:A151"/>
+    <mergeCell ref="A113:A114"/>
+    <mergeCell ref="A117:A118"/>
+    <mergeCell ref="A126:A127"/>
+    <mergeCell ref="A130:A131"/>
+    <mergeCell ref="A134:A135"/>
+    <mergeCell ref="A91:A92"/>
+    <mergeCell ref="A94:A95"/>
+    <mergeCell ref="A103:A104"/>
+    <mergeCell ref="A105:A106"/>
+    <mergeCell ref="A108:A109"/>
+    <mergeCell ref="A110:A111"/>
+    <mergeCell ref="A72:A74"/>
+    <mergeCell ref="A77:A79"/>
+    <mergeCell ref="A80:A81"/>
+    <mergeCell ref="A82:A83"/>
+    <mergeCell ref="A84:A85"/>
+    <mergeCell ref="A88:A90"/>
+    <mergeCell ref="A57:A60"/>
+    <mergeCell ref="A61:A62"/>
+    <mergeCell ref="A63:A64"/>
+    <mergeCell ref="A66:A69"/>
+    <mergeCell ref="A70:A71"/>
+    <mergeCell ref="A34:A36"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="A48:A49"/>
+    <mergeCell ref="A51:A52"/>
+    <mergeCell ref="B158:B159"/>
+    <mergeCell ref="B160:B161"/>
+    <mergeCell ref="B163:B167"/>
+    <mergeCell ref="B126:B127"/>
+    <mergeCell ref="B130:B131"/>
+    <mergeCell ref="B134:B135"/>
+    <mergeCell ref="B138:B141"/>
+    <mergeCell ref="B136:B137"/>
+    <mergeCell ref="B117:B119"/>
+    <mergeCell ref="B152:B153"/>
+    <mergeCell ref="B154:B156"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="B48:B49"/>
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="B53:B56"/>
+    <mergeCell ref="B57:B60"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="A21:A31"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="B103:B104"/>
+    <mergeCell ref="B105:B106"/>
+    <mergeCell ref="B108:B109"/>
+    <mergeCell ref="B110:B111"/>
+    <mergeCell ref="B113:B114"/>
+    <mergeCell ref="B80:B81"/>
+    <mergeCell ref="B82:B83"/>
+    <mergeCell ref="B84:B85"/>
+    <mergeCell ref="B77:B79"/>
+    <mergeCell ref="A53:A56"/>
     <mergeCell ref="B178:B179"/>
     <mergeCell ref="B175:B177"/>
     <mergeCell ref="B2:B3"/>
@@ -3176,86 +3265,19 @@
     <mergeCell ref="B143:B144"/>
     <mergeCell ref="B146:B147"/>
     <mergeCell ref="B150:B151"/>
-    <mergeCell ref="B152:B153"/>
-    <mergeCell ref="B154:B156"/>
-    <mergeCell ref="B42:B43"/>
-    <mergeCell ref="B45:B46"/>
-    <mergeCell ref="B48:B49"/>
-    <mergeCell ref="B51:B52"/>
-    <mergeCell ref="B53:B56"/>
-    <mergeCell ref="B57:B60"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A15:A17"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="A21:A31"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="B158:B159"/>
-    <mergeCell ref="B160:B161"/>
-    <mergeCell ref="B163:B167"/>
-    <mergeCell ref="B118:B119"/>
-    <mergeCell ref="B126:B127"/>
-    <mergeCell ref="B130:B131"/>
-    <mergeCell ref="B134:B135"/>
-    <mergeCell ref="B138:B141"/>
-    <mergeCell ref="B136:B137"/>
-    <mergeCell ref="B103:B104"/>
-    <mergeCell ref="B105:B106"/>
-    <mergeCell ref="B108:B109"/>
-    <mergeCell ref="B110:B111"/>
-    <mergeCell ref="B113:B114"/>
-    <mergeCell ref="B116:B117"/>
-    <mergeCell ref="B80:B81"/>
-    <mergeCell ref="B82:B83"/>
-    <mergeCell ref="B84:B85"/>
-    <mergeCell ref="B77:B79"/>
-    <mergeCell ref="A53:A56"/>
-    <mergeCell ref="A57:A60"/>
-    <mergeCell ref="A61:A62"/>
-    <mergeCell ref="A63:A64"/>
-    <mergeCell ref="A66:A69"/>
-    <mergeCell ref="A70:A71"/>
-    <mergeCell ref="A34:A36"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="A48:A49"/>
-    <mergeCell ref="A51:A52"/>
-    <mergeCell ref="A91:A92"/>
-    <mergeCell ref="A94:A95"/>
-    <mergeCell ref="A103:A104"/>
-    <mergeCell ref="A105:A106"/>
-    <mergeCell ref="A108:A109"/>
-    <mergeCell ref="A110:A111"/>
-    <mergeCell ref="A72:A74"/>
-    <mergeCell ref="A77:A79"/>
-    <mergeCell ref="A80:A81"/>
-    <mergeCell ref="A82:A83"/>
-    <mergeCell ref="A84:A85"/>
-    <mergeCell ref="A88:A90"/>
-    <mergeCell ref="B4:B14"/>
-    <mergeCell ref="A4:A14"/>
-    <mergeCell ref="B20:B31"/>
-    <mergeCell ref="A171:A172"/>
-    <mergeCell ref="A173:A174"/>
-    <mergeCell ref="A175:A177"/>
-    <mergeCell ref="A178:A179"/>
-    <mergeCell ref="A152:A153"/>
-    <mergeCell ref="A154:A156"/>
-    <mergeCell ref="A158:A159"/>
-    <mergeCell ref="A160:A161"/>
-    <mergeCell ref="A163:A167"/>
-    <mergeCell ref="A168:A169"/>
-    <mergeCell ref="A136:A137"/>
-    <mergeCell ref="A138:A141"/>
-    <mergeCell ref="A143:A144"/>
-    <mergeCell ref="A146:A147"/>
-    <mergeCell ref="A150:A151"/>
-    <mergeCell ref="A113:A114"/>
-    <mergeCell ref="A116:A117"/>
-    <mergeCell ref="A118:A119"/>
-    <mergeCell ref="A126:A127"/>
-    <mergeCell ref="A130:A131"/>
-    <mergeCell ref="A134:A135"/>
+    <mergeCell ref="E42:E43"/>
+    <mergeCell ref="E45:E46"/>
+    <mergeCell ref="E48:E49"/>
+    <mergeCell ref="E51:E52"/>
+    <mergeCell ref="E53:E56"/>
+    <mergeCell ref="E5:E14"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="E15:E17"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="E21:E31"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="E34:E36"/>
+    <mergeCell ref="E39:E40"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/AsanCFG.xlsx
+++ b/AsanCFG.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NABEEL\Desktop\AsanCompiler\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE86C8BB-DA53-4F31-8EA1-085F0ECDF36A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0FC3634-D114-4B72-BB6D-EDA36D9C92A1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{6880E40A-521A-4FFB-930A-E7F9EF58FF7E}"/>
   </bookViews>
@@ -819,28 +819,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1157,8 +1157,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{433D985D-E3BA-44F9-AF30-B50456217A32}">
   <dimension ref="A1:E179"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A109" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B120" sqref="B120"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1187,10 +1187,10 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="18">
+      <c r="A2" s="20">
         <v>1</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="20" t="s">
         <v>96</v>
       </c>
       <c r="C2" t="s">
@@ -1199,23 +1199,23 @@
       <c r="D2" t="s">
         <v>167</v>
       </c>
-      <c r="E2" s="18" t="s">
+      <c r="E2" s="20" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="18"/>
-      <c r="B3" s="18"/>
+      <c r="A3" s="20"/>
+      <c r="B3" s="20"/>
       <c r="C3" t="s">
         <v>93</v>
       </c>
-      <c r="E3" s="18"/>
+      <c r="E3" s="20"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="18">
+      <c r="A4" s="20">
         <v>2</v>
       </c>
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="20" t="s">
         <v>97</v>
       </c>
       <c r="C4" s="6" t="s">
@@ -1227,122 +1227,122 @@
       <c r="E4" s="8"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="18"/>
-      <c r="B5" s="18"/>
+      <c r="A5" s="20"/>
+      <c r="B5" s="20"/>
       <c r="C5" t="s">
         <v>1</v>
       </c>
       <c r="D5" t="s">
         <v>168</v>
       </c>
-      <c r="E5" s="18" t="s">
+      <c r="E5" s="20" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="18"/>
-      <c r="B6" s="18"/>
+      <c r="A6" s="20"/>
+      <c r="B6" s="20"/>
       <c r="C6" t="s">
         <v>2</v>
       </c>
       <c r="D6" t="s">
         <v>169</v>
       </c>
-      <c r="E6" s="18"/>
+      <c r="E6" s="20"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="18"/>
-      <c r="B7" s="18"/>
+      <c r="A7" s="20"/>
+      <c r="B7" s="20"/>
       <c r="C7" t="s">
         <v>3</v>
       </c>
       <c r="D7" t="s">
         <v>170</v>
       </c>
-      <c r="E7" s="18"/>
+      <c r="E7" s="20"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="18"/>
-      <c r="B8" s="18"/>
+      <c r="A8" s="20"/>
+      <c r="B8" s="20"/>
       <c r="C8" t="s">
         <v>4</v>
       </c>
       <c r="D8" t="s">
         <v>171</v>
       </c>
-      <c r="E8" s="18"/>
+      <c r="E8" s="20"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="18"/>
-      <c r="B9" s="18"/>
+      <c r="A9" s="20"/>
+      <c r="B9" s="20"/>
       <c r="C9" t="s">
         <v>5</v>
       </c>
       <c r="D9" t="s">
         <v>172</v>
       </c>
-      <c r="E9" s="18"/>
+      <c r="E9" s="20"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="18"/>
-      <c r="B10" s="18"/>
+      <c r="A10" s="20"/>
+      <c r="B10" s="20"/>
       <c r="C10" t="s">
         <v>6</v>
       </c>
       <c r="D10" t="s">
         <v>173</v>
       </c>
-      <c r="E10" s="18"/>
+      <c r="E10" s="20"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="18"/>
-      <c r="B11" s="18"/>
+      <c r="A11" s="20"/>
+      <c r="B11" s="20"/>
       <c r="C11" t="s">
         <v>7</v>
       </c>
       <c r="D11" t="s">
         <v>174</v>
       </c>
-      <c r="E11" s="18"/>
+      <c r="E11" s="20"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="18"/>
-      <c r="B12" s="18"/>
+      <c r="A12" s="20"/>
+      <c r="B12" s="20"/>
       <c r="C12" t="s">
         <v>8</v>
       </c>
       <c r="D12" t="s">
         <v>175</v>
       </c>
-      <c r="E12" s="18"/>
+      <c r="E12" s="20"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="18"/>
-      <c r="B13" s="18"/>
+      <c r="A13" s="20"/>
+      <c r="B13" s="20"/>
       <c r="C13" t="s">
         <v>9</v>
       </c>
       <c r="D13" t="s">
         <v>176</v>
       </c>
-      <c r="E13" s="18"/>
+      <c r="E13" s="20"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="18"/>
-      <c r="B14" s="18"/>
+      <c r="A14" s="20"/>
+      <c r="B14" s="20"/>
       <c r="C14" t="s">
         <v>10</v>
       </c>
       <c r="D14" t="s">
         <v>18</v>
       </c>
-      <c r="E14" s="18"/>
+      <c r="E14" s="20"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="18">
+      <c r="A15" s="20">
         <v>3</v>
       </c>
-      <c r="B15" s="18" t="s">
+      <c r="B15" s="20" t="s">
         <v>98</v>
       </c>
       <c r="C15" t="s">
@@ -1351,35 +1351,35 @@
       <c r="D15" t="s">
         <v>11</v>
       </c>
-      <c r="E15" s="18"/>
+      <c r="E15" s="20"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="18"/>
-      <c r="B16" s="18"/>
+      <c r="A16" s="20"/>
+      <c r="B16" s="20"/>
       <c r="C16" t="s">
         <v>12</v>
       </c>
       <c r="D16" t="s">
         <v>178</v>
       </c>
-      <c r="E16" s="18"/>
+      <c r="E16" s="20"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="18"/>
-      <c r="B17" s="18"/>
+      <c r="A17" s="20"/>
+      <c r="B17" s="20"/>
       <c r="C17" t="s">
         <v>13</v>
       </c>
       <c r="D17" t="s">
         <v>177</v>
       </c>
-      <c r="E17" s="18"/>
+      <c r="E17" s="20"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="18">
+      <c r="A18" s="20">
         <v>4</v>
       </c>
-      <c r="B18" s="18" t="s">
+      <c r="B18" s="20" t="s">
         <v>99</v>
       </c>
       <c r="C18" t="s">
@@ -1388,21 +1388,21 @@
       <c r="D18" t="s">
         <v>178</v>
       </c>
-      <c r="E18" s="19" t="s">
+      <c r="E18" s="25" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="18"/>
-      <c r="B19" s="18"/>
+      <c r="A19" s="20"/>
+      <c r="B19" s="20"/>
       <c r="C19" t="s">
         <v>93</v>
       </c>
-      <c r="E19" s="19"/>
+      <c r="E19" s="25"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="7"/>
-      <c r="B20" s="18" t="s">
+      <c r="B20" s="20" t="s">
         <v>12</v>
       </c>
       <c r="C20" s="6" t="s">
@@ -1412,160 +1412,160 @@
       <c r="E20" s="8"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="18">
+      <c r="A21" s="20">
         <v>5</v>
       </c>
-      <c r="B21" s="18"/>
-      <c r="C21" t="s">
+      <c r="B21" s="20"/>
+      <c r="C21" s="19" t="s">
         <v>1</v>
       </c>
       <c r="D21" t="s">
         <v>168</v>
       </c>
-      <c r="E21" s="18" t="s">
+      <c r="E21" s="20" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="18"/>
-      <c r="B22" s="18"/>
-      <c r="C22" s="25" t="s">
+      <c r="A22" s="20"/>
+      <c r="B22" s="20"/>
+      <c r="C22" s="19" t="s">
         <v>2</v>
       </c>
       <c r="D22" t="s">
         <v>169</v>
       </c>
-      <c r="E22" s="18"/>
+      <c r="E22" s="20"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="18"/>
-      <c r="B23" s="18"/>
-      <c r="C23" s="25" t="s">
+      <c r="A23" s="20"/>
+      <c r="B23" s="20"/>
+      <c r="C23" s="19" t="s">
         <v>3</v>
       </c>
       <c r="D23" t="s">
         <v>170</v>
       </c>
-      <c r="E23" s="18"/>
+      <c r="E23" s="20"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="18"/>
-      <c r="B24" s="18"/>
-      <c r="C24" s="25" t="s">
+      <c r="A24" s="20"/>
+      <c r="B24" s="20"/>
+      <c r="C24" s="19" t="s">
         <v>4</v>
       </c>
       <c r="D24" t="s">
         <v>171</v>
       </c>
-      <c r="E24" s="18"/>
+      <c r="E24" s="20"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="18"/>
-      <c r="B25" s="18"/>
-      <c r="C25" s="25" t="s">
+      <c r="A25" s="20"/>
+      <c r="B25" s="20"/>
+      <c r="C25" s="19" t="s">
         <v>5</v>
       </c>
       <c r="D25" t="s">
         <v>172</v>
       </c>
-      <c r="E25" s="18"/>
+      <c r="E25" s="20"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="18"/>
-      <c r="B26" s="18"/>
-      <c r="C26" s="25" t="s">
+      <c r="A26" s="20"/>
+      <c r="B26" s="20"/>
+      <c r="C26" s="19" t="s">
         <v>6</v>
       </c>
       <c r="D26" t="s">
         <v>173</v>
       </c>
-      <c r="E26" s="18"/>
+      <c r="E26" s="20"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="18"/>
-      <c r="B27" s="18"/>
-      <c r="C27" t="s">
+      <c r="A27" s="20"/>
+      <c r="B27" s="20"/>
+      <c r="C27" s="19" t="s">
         <v>15</v>
       </c>
       <c r="D27" t="s">
         <v>180</v>
       </c>
-      <c r="E27" s="18"/>
+      <c r="E27" s="20"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="18"/>
-      <c r="B28" s="18"/>
+      <c r="A28" s="20"/>
+      <c r="B28" s="20"/>
       <c r="C28" t="s">
         <v>16</v>
       </c>
       <c r="D28" t="s">
         <v>181</v>
       </c>
-      <c r="E28" s="18"/>
+      <c r="E28" s="20"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="18"/>
-      <c r="B29" s="18"/>
-      <c r="C29" s="25" t="s">
+      <c r="A29" s="20"/>
+      <c r="B29" s="20"/>
+      <c r="C29" s="19" t="s">
         <v>7</v>
       </c>
       <c r="D29" t="s">
         <v>174</v>
       </c>
-      <c r="E29" s="18"/>
+      <c r="E29" s="20"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="18"/>
-      <c r="B30" s="18"/>
-      <c r="C30" t="s">
+      <c r="A30" s="20"/>
+      <c r="B30" s="20"/>
+      <c r="C30" s="19" t="s">
         <v>8</v>
       </c>
       <c r="D30" t="s">
         <v>175</v>
       </c>
-      <c r="E30" s="18"/>
+      <c r="E30" s="20"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="18"/>
-      <c r="B31" s="18"/>
+      <c r="A31" s="20"/>
+      <c r="B31" s="20"/>
       <c r="C31" t="s">
         <v>9</v>
       </c>
       <c r="D31" t="s">
         <v>18</v>
       </c>
-      <c r="E31" s="18"/>
+      <c r="E31" s="20"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="18">
+      <c r="A32" s="20">
         <v>6</v>
       </c>
-      <c r="B32" s="18" t="s">
+      <c r="B32" s="20" t="s">
         <v>100</v>
       </c>
       <c r="C32" t="s">
         <v>93</v>
       </c>
-      <c r="E32" s="18" t="s">
+      <c r="E32" s="20" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="18"/>
-      <c r="B33" s="18"/>
+      <c r="A33" s="20"/>
+      <c r="B33" s="20"/>
       <c r="C33" t="s">
         <v>17</v>
       </c>
       <c r="D33" t="s">
         <v>183</v>
       </c>
-      <c r="E33" s="18"/>
+      <c r="E33" s="20"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="20">
+      <c r="A34" s="24">
         <v>7</v>
       </c>
-      <c r="B34" s="20" t="s">
+      <c r="B34" s="24" t="s">
         <v>101</v>
       </c>
       <c r="C34" s="6" t="s">
@@ -1574,29 +1574,29 @@
       <c r="D34" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E34" s="20" t="s">
+      <c r="E34" s="24" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="20"/>
-      <c r="B35" s="20"/>
+      <c r="A35" s="24"/>
+      <c r="B35" s="24"/>
       <c r="C35" s="6" t="s">
         <v>202</v>
       </c>
       <c r="D35" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="E35" s="20"/>
+      <c r="E35" s="24"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="20"/>
-      <c r="B36" s="20"/>
+      <c r="A36" s="24"/>
+      <c r="B36" s="24"/>
       <c r="C36" s="6" t="s">
         <v>93</v>
       </c>
       <c r="D36" s="6"/>
-      <c r="E36" s="20"/>
+      <c r="E36" s="24"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="11">
@@ -1631,10 +1631,10 @@
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="18">
+      <c r="A39" s="20">
         <v>10</v>
       </c>
-      <c r="B39" s="18" t="s">
+      <c r="B39" s="20" t="s">
         <v>102</v>
       </c>
       <c r="C39" t="s">
@@ -1643,17 +1643,17 @@
       <c r="D39" t="s">
         <v>187</v>
       </c>
-      <c r="E39" s="18" t="s">
+      <c r="E39" s="20" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="18"/>
-      <c r="B40" s="18"/>
+      <c r="A40" s="20"/>
+      <c r="B40" s="20"/>
       <c r="C40" t="s">
         <v>93</v>
       </c>
-      <c r="E40" s="18"/>
+      <c r="E40" s="20"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="3">
@@ -1673,10 +1673,10 @@
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="18">
+      <c r="A42" s="20">
         <v>12</v>
       </c>
-      <c r="B42" s="18" t="s">
+      <c r="B42" s="20" t="s">
         <v>104</v>
       </c>
       <c r="C42" t="s">
@@ -1685,17 +1685,17 @@
       <c r="D42" t="s">
         <v>190</v>
       </c>
-      <c r="E42" s="18" t="s">
+      <c r="E42" s="20" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" s="18"/>
-      <c r="B43" s="18"/>
+      <c r="A43" s="20"/>
+      <c r="B43" s="20"/>
       <c r="C43" t="s">
         <v>93</v>
       </c>
-      <c r="E43" s="18"/>
+      <c r="E43" s="20"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="3">
@@ -1715,10 +1715,10 @@
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" s="18">
+      <c r="A45" s="20">
         <v>14</v>
       </c>
-      <c r="B45" s="18" t="s">
+      <c r="B45" s="20" t="s">
         <v>106</v>
       </c>
       <c r="C45" t="s">
@@ -1727,17 +1727,17 @@
       <c r="D45" t="s">
         <v>191</v>
       </c>
-      <c r="E45" s="18" t="s">
+      <c r="E45" s="20" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" s="18"/>
-      <c r="B46" s="18"/>
+      <c r="A46" s="20"/>
+      <c r="B46" s="20"/>
       <c r="C46" t="s">
         <v>93</v>
       </c>
-      <c r="E46" s="18"/>
+      <c r="E46" s="20"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="3">
@@ -1757,10 +1757,10 @@
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" s="18">
+      <c r="A48" s="20">
         <v>16</v>
       </c>
-      <c r="B48" s="18" t="s">
+      <c r="B48" s="20" t="s">
         <v>108</v>
       </c>
       <c r="C48" t="s">
@@ -1769,17 +1769,17 @@
       <c r="D48" t="s">
         <v>192</v>
       </c>
-      <c r="E48" s="18" t="s">
+      <c r="E48" s="20" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" s="18"/>
-      <c r="B49" s="18"/>
+      <c r="A49" s="20"/>
+      <c r="B49" s="20"/>
       <c r="C49" t="s">
         <v>93</v>
       </c>
-      <c r="E49" s="18"/>
+      <c r="E49" s="20"/>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="3">
@@ -1799,10 +1799,10 @@
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" s="18">
+      <c r="A51" s="20">
         <v>18</v>
       </c>
-      <c r="B51" s="18" t="s">
+      <c r="B51" s="20" t="s">
         <v>110</v>
       </c>
       <c r="C51" t="s">
@@ -1811,23 +1811,23 @@
       <c r="D51" t="s">
         <v>193</v>
       </c>
-      <c r="E51" s="18" t="s">
+      <c r="E51" s="20" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52" s="18"/>
-      <c r="B52" s="18"/>
+      <c r="A52" s="20"/>
+      <c r="B52" s="20"/>
       <c r="C52" t="s">
         <v>93</v>
       </c>
-      <c r="E52" s="18"/>
+      <c r="E52" s="20"/>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53" s="18">
+      <c r="A53" s="20">
         <v>19</v>
       </c>
-      <c r="B53" s="18" t="s">
+      <c r="B53" s="20" t="s">
         <v>111</v>
       </c>
       <c r="C53" t="s">
@@ -1836,48 +1836,48 @@
       <c r="D53" t="s">
         <v>199</v>
       </c>
-      <c r="E53" s="18" t="s">
+      <c r="E53" s="20" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A54" s="18"/>
-      <c r="B54" s="18"/>
+      <c r="A54" s="20"/>
+      <c r="B54" s="20"/>
       <c r="C54" t="s">
         <v>31</v>
       </c>
       <c r="D54" t="s">
         <v>188</v>
       </c>
-      <c r="E54" s="18"/>
+      <c r="E54" s="20"/>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A55" s="18"/>
-      <c r="B55" s="18"/>
+      <c r="A55" s="20"/>
+      <c r="B55" s="20"/>
       <c r="C55" t="s">
         <v>32</v>
       </c>
       <c r="D55" t="s">
         <v>189</v>
       </c>
-      <c r="E55" s="18"/>
+      <c r="E55" s="20"/>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A56" s="18"/>
-      <c r="B56" s="18"/>
+      <c r="A56" s="20"/>
+      <c r="B56" s="20"/>
       <c r="C56" t="s">
         <v>33</v>
       </c>
       <c r="D56" t="s">
         <v>18</v>
       </c>
-      <c r="E56" s="18"/>
+      <c r="E56" s="20"/>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A57" s="18">
+      <c r="A57" s="20">
         <v>20</v>
       </c>
-      <c r="B57" s="18" t="s">
+      <c r="B57" s="20" t="s">
         <v>19</v>
       </c>
       <c r="C57" t="s">
@@ -1889,8 +1889,8 @@
       <c r="E57" s="5"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A58" s="18"/>
-      <c r="B58" s="18"/>
+      <c r="A58" s="20"/>
+      <c r="B58" s="20"/>
       <c r="C58" t="s">
         <v>35</v>
       </c>
@@ -1900,8 +1900,8 @@
       <c r="E58" s="5"/>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A59" s="18"/>
-      <c r="B59" s="18"/>
+      <c r="A59" s="20"/>
+      <c r="B59" s="20"/>
       <c r="C59" t="s">
         <v>36</v>
       </c>
@@ -1911,8 +1911,8 @@
       <c r="E59" s="5"/>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A60" s="18"/>
-      <c r="B60" s="18"/>
+      <c r="A60" s="20"/>
+      <c r="B60" s="20"/>
       <c r="C60" t="s">
         <v>37</v>
       </c>
@@ -1922,10 +1922,10 @@
       <c r="E60" s="5"/>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A61" s="18">
+      <c r="A61" s="20">
         <v>21</v>
       </c>
-      <c r="B61" s="18" t="s">
+      <c r="B61" s="20" t="s">
         <v>112</v>
       </c>
       <c r="C61" t="s">
@@ -1934,18 +1934,18 @@
       <c r="E61" s="5"/>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A62" s="18"/>
-      <c r="B62" s="18"/>
+      <c r="A62" s="20"/>
+      <c r="B62" s="20"/>
       <c r="C62" t="s">
         <v>19</v>
       </c>
       <c r="E62" s="5"/>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A63" s="18">
+      <c r="A63" s="20">
         <v>22</v>
       </c>
-      <c r="B63" s="18" t="s">
+      <c r="B63" s="20" t="s">
         <v>113</v>
       </c>
       <c r="C63" t="s">
@@ -1954,8 +1954,8 @@
       <c r="E63" s="5"/>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A64" s="18"/>
-      <c r="B64" s="18"/>
+      <c r="A64" s="20"/>
+      <c r="B64" s="20"/>
       <c r="C64" t="s">
         <v>93</v>
       </c>
@@ -1975,10 +1975,10 @@
       <c r="E65" s="13"/>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A66" s="21">
+      <c r="A66" s="23">
         <v>24</v>
       </c>
-      <c r="B66" s="21" t="s">
+      <c r="B66" s="23" t="s">
         <v>116</v>
       </c>
       <c r="C66" s="12" t="s">
@@ -1988,8 +1988,8 @@
       <c r="E66" s="13"/>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A67" s="21"/>
-      <c r="B67" s="21"/>
+      <c r="A67" s="23"/>
+      <c r="B67" s="23"/>
       <c r="C67" s="12" t="s">
         <v>40</v>
       </c>
@@ -1997,8 +1997,8 @@
       <c r="E67" s="13"/>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A68" s="21"/>
-      <c r="B68" s="21"/>
+      <c r="A68" s="23"/>
+      <c r="B68" s="23"/>
       <c r="C68" s="12" t="s">
         <v>203</v>
       </c>
@@ -2006,8 +2006,8 @@
       <c r="E68" s="13"/>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A69" s="21"/>
-      <c r="B69" s="21"/>
+      <c r="A69" s="23"/>
+      <c r="B69" s="23"/>
       <c r="C69" s="12" t="s">
         <v>11</v>
       </c>
@@ -2015,10 +2015,10 @@
       <c r="E69" s="13"/>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A70" s="21">
+      <c r="A70" s="23">
         <v>25</v>
       </c>
-      <c r="B70" s="21" t="s">
+      <c r="B70" s="23" t="s">
         <v>114</v>
       </c>
       <c r="C70" s="12" t="s">
@@ -2028,8 +2028,8 @@
       <c r="E70" s="13"/>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A71" s="21"/>
-      <c r="B71" s="21"/>
+      <c r="A71" s="23"/>
+      <c r="B71" s="23"/>
       <c r="C71" s="12"/>
       <c r="D71" s="12"/>
       <c r="E71" s="13"/>
@@ -2090,10 +2090,10 @@
       <c r="E76" s="5"/>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A77" s="18">
+      <c r="A77" s="20">
         <v>29</v>
       </c>
-      <c r="B77" s="18" t="s">
+      <c r="B77" s="20" t="s">
         <v>120</v>
       </c>
       <c r="C77" t="s">
@@ -2102,26 +2102,26 @@
       <c r="E77" s="5"/>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A78" s="18"/>
-      <c r="B78" s="18"/>
+      <c r="A78" s="20"/>
+      <c r="B78" s="20"/>
       <c r="C78" t="s">
         <v>1</v>
       </c>
       <c r="E78" s="5"/>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A79" s="18"/>
-      <c r="B79" s="18"/>
+      <c r="A79" s="20"/>
+      <c r="B79" s="20"/>
       <c r="C79" t="s">
         <v>44</v>
       </c>
       <c r="E79" s="5"/>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A80" s="18">
+      <c r="A80" s="20">
         <v>30</v>
       </c>
-      <c r="B80" s="18" t="s">
+      <c r="B80" s="20" t="s">
         <v>121</v>
       </c>
       <c r="C80" t="s">
@@ -2130,18 +2130,18 @@
       <c r="E80" s="5"/>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A81" s="18"/>
-      <c r="B81" s="18"/>
+      <c r="A81" s="20"/>
+      <c r="B81" s="20"/>
       <c r="C81" t="s">
         <v>11</v>
       </c>
       <c r="E81" s="5"/>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A82" s="18">
+      <c r="A82" s="20">
         <v>31</v>
       </c>
-      <c r="B82" s="18" t="s">
+      <c r="B82" s="20" t="s">
         <v>122</v>
       </c>
       <c r="C82" t="s">
@@ -2150,18 +2150,18 @@
       <c r="E82" s="5"/>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A83" s="18"/>
-      <c r="B83" s="18"/>
+      <c r="A83" s="20"/>
+      <c r="B83" s="20"/>
       <c r="C83" t="s">
         <v>93</v>
       </c>
       <c r="E83" s="5"/>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A84" s="18">
+      <c r="A84" s="20">
         <v>32</v>
       </c>
-      <c r="B84" s="18" t="s">
+      <c r="B84" s="20" t="s">
         <v>46</v>
       </c>
       <c r="C84" t="s">
@@ -2170,8 +2170,8 @@
       <c r="E84" s="5"/>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A85" s="18"/>
-      <c r="B85" s="18"/>
+      <c r="A85" s="20"/>
+      <c r="B85" s="20"/>
       <c r="C85" t="s">
         <v>124</v>
       </c>
@@ -2202,10 +2202,10 @@
       <c r="E87" s="5"/>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A88" s="18">
+      <c r="A88" s="20">
         <v>35</v>
       </c>
-      <c r="B88" s="18" t="s">
+      <c r="B88" s="20" t="s">
         <v>126</v>
       </c>
       <c r="C88" t="s">
@@ -2214,26 +2214,26 @@
       <c r="E88" s="5"/>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A89" s="18"/>
-      <c r="B89" s="18"/>
+      <c r="A89" s="20"/>
+      <c r="B89" s="20"/>
       <c r="C89" t="s">
         <v>51</v>
       </c>
       <c r="E89" s="5"/>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A90" s="18"/>
-      <c r="B90" s="18"/>
+      <c r="A90" s="20"/>
+      <c r="B90" s="20"/>
       <c r="C90" t="s">
         <v>52</v>
       </c>
       <c r="E90" s="5"/>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A91" s="18">
+      <c r="A91" s="20">
         <v>36</v>
       </c>
-      <c r="B91" s="18" t="s">
+      <c r="B91" s="20" t="s">
         <v>20</v>
       </c>
       <c r="C91" t="s">
@@ -2242,8 +2242,8 @@
       <c r="E91" s="5"/>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A92" s="18"/>
-      <c r="B92" s="18"/>
+      <c r="A92" s="20"/>
+      <c r="B92" s="20"/>
       <c r="C92" t="s">
         <v>53</v>
       </c>
@@ -2262,10 +2262,10 @@
       <c r="E93" s="5"/>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A94" s="18">
+      <c r="A94" s="20">
         <v>38</v>
       </c>
-      <c r="B94" s="18" t="s">
+      <c r="B94" s="20" t="s">
         <v>128</v>
       </c>
       <c r="C94" t="s">
@@ -2274,8 +2274,8 @@
       <c r="E94" s="5"/>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A95" s="18"/>
-      <c r="B95" s="18"/>
+      <c r="A95" s="20"/>
+      <c r="B95" s="20"/>
       <c r="C95" t="s">
         <v>13</v>
       </c>
@@ -2288,7 +2288,7 @@
       <c r="B96" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="C96" t="s">
+      <c r="C96" s="19" t="s">
         <v>55</v>
       </c>
       <c r="E96" s="5"/>
@@ -2307,7 +2307,7 @@
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" s="15"/>
-      <c r="B98" s="21" t="s">
+      <c r="B98" s="23" t="s">
         <v>214</v>
       </c>
       <c r="C98" s="12" t="s">
@@ -2318,7 +2318,7 @@
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" s="15"/>
-      <c r="B99" s="21"/>
+      <c r="B99" s="23"/>
       <c r="C99" s="12" t="s">
         <v>93</v>
       </c>
@@ -2327,7 +2327,7 @@
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" s="15"/>
-      <c r="B100" s="21" t="s">
+      <c r="B100" s="23" t="s">
         <v>215</v>
       </c>
       <c r="C100" s="12" t="s">
@@ -2338,7 +2338,7 @@
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" s="15"/>
-      <c r="B101" s="21"/>
+      <c r="B101" s="23"/>
       <c r="C101" s="12" t="s">
         <v>93</v>
       </c>
@@ -2358,10 +2358,10 @@
       <c r="E102" s="5"/>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A103" s="18">
+      <c r="A103" s="20">
         <v>42</v>
       </c>
-      <c r="B103" s="18" t="s">
+      <c r="B103" s="20" t="s">
         <v>130</v>
       </c>
       <c r="C103" t="s">
@@ -2370,18 +2370,18 @@
       <c r="E103" s="5"/>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A104" s="18"/>
-      <c r="B104" s="18"/>
+      <c r="A104" s="20"/>
+      <c r="B104" s="20"/>
       <c r="C104" t="s">
         <v>93</v>
       </c>
       <c r="E104" s="5"/>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A105" s="18">
+      <c r="A105" s="20">
         <v>43</v>
       </c>
-      <c r="B105" s="18" t="s">
+      <c r="B105" s="20" t="s">
         <v>131</v>
       </c>
       <c r="C105" t="s">
@@ -2390,15 +2390,15 @@
       <c r="E105" s="5"/>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A106" s="18"/>
-      <c r="B106" s="18"/>
+      <c r="A106" s="20"/>
+      <c r="B106" s="20"/>
       <c r="C106" t="s">
         <v>58</v>
       </c>
       <c r="E106" s="5"/>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A107" s="23">
+      <c r="A107" s="18">
         <v>44</v>
       </c>
       <c r="B107" s="3" t="s">
@@ -2410,10 +2410,10 @@
       <c r="E107" s="5"/>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A108" s="18">
+      <c r="A108" s="20">
         <v>45</v>
       </c>
-      <c r="B108" s="18" t="s">
+      <c r="B108" s="20" t="s">
         <v>133</v>
       </c>
       <c r="C108" s="6" t="s">
@@ -2422,18 +2422,18 @@
       <c r="E108" s="5"/>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A109" s="18"/>
-      <c r="B109" s="18"/>
+      <c r="A109" s="20"/>
+      <c r="B109" s="20"/>
       <c r="C109" t="s">
         <v>93</v>
       </c>
       <c r="E109" s="5"/>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A110" s="18">
+      <c r="A110" s="20">
         <v>46</v>
       </c>
-      <c r="B110" s="18" t="s">
+      <c r="B110" s="20" t="s">
         <v>134</v>
       </c>
       <c r="C110" t="s">
@@ -2442,8 +2442,8 @@
       <c r="E110" s="5"/>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A111" s="18"/>
-      <c r="B111" s="18"/>
+      <c r="A111" s="20"/>
+      <c r="B111" s="20"/>
       <c r="C111" t="s">
         <v>93</v>
       </c>
@@ -2462,10 +2462,10 @@
       <c r="E112" s="5"/>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A113" s="18">
+      <c r="A113" s="20">
         <v>48</v>
       </c>
-      <c r="B113" s="18" t="s">
+      <c r="B113" s="20" t="s">
         <v>135</v>
       </c>
       <c r="C113" t="s">
@@ -2474,8 +2474,8 @@
       <c r="E113" s="5"/>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A114" s="18"/>
-      <c r="B114" s="18"/>
+      <c r="A114" s="20"/>
+      <c r="B114" s="20"/>
       <c r="C114" t="s">
         <v>93</v>
       </c>
@@ -2507,10 +2507,10 @@
       <c r="E116" s="5"/>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A117" s="18">
+      <c r="A117" s="20">
         <v>51</v>
       </c>
-      <c r="B117" s="21" t="s">
+      <c r="B117" s="23" t="s">
         <v>136</v>
       </c>
       <c r="C117" s="12" t="s">
@@ -2520,8 +2520,8 @@
       <c r="E117" s="13"/>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A118" s="18"/>
-      <c r="B118" s="21"/>
+      <c r="A118" s="20"/>
+      <c r="B118" s="23"/>
       <c r="C118" s="12" t="s">
         <v>64</v>
       </c>
@@ -2530,7 +2530,7 @@
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" s="17"/>
-      <c r="B119" s="21"/>
+      <c r="B119" s="23"/>
       <c r="C119" s="12" t="s">
         <v>93</v>
       </c>
@@ -2610,10 +2610,10 @@
       <c r="E125" s="5"/>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A126" s="18">
+      <c r="A126" s="20">
         <v>58</v>
       </c>
-      <c r="B126" s="18" t="s">
+      <c r="B126" s="20" t="s">
         <v>139</v>
       </c>
       <c r="C126" t="s">
@@ -2622,15 +2622,15 @@
       <c r="E126" s="5"/>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A127" s="18"/>
-      <c r="B127" s="18"/>
+      <c r="A127" s="20"/>
+      <c r="B127" s="20"/>
       <c r="C127" t="s">
         <v>93</v>
       </c>
       <c r="E127" s="5"/>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A128" s="23">
+      <c r="A128" s="18">
         <v>59</v>
       </c>
       <c r="B128" s="3" t="s">
@@ -2642,7 +2642,7 @@
       <c r="E128" s="5"/>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A129" s="23">
+      <c r="A129" s="18">
         <v>60</v>
       </c>
       <c r="B129" s="3" t="s">
@@ -2654,10 +2654,10 @@
       <c r="E129" s="5"/>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A130" s="24">
+      <c r="A130" s="21">
         <v>61</v>
       </c>
-      <c r="B130" s="18" t="s">
+      <c r="B130" s="20" t="s">
         <v>141</v>
       </c>
       <c r="C130" t="s">
@@ -2666,15 +2666,15 @@
       <c r="E130" s="5"/>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A131" s="24"/>
-      <c r="B131" s="18"/>
+      <c r="A131" s="21"/>
+      <c r="B131" s="20"/>
       <c r="C131" t="s">
         <v>74</v>
       </c>
       <c r="E131" s="5"/>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A132" s="23">
+      <c r="A132" s="18">
         <v>62</v>
       </c>
       <c r="B132" s="3" t="s">
@@ -2698,10 +2698,10 @@
       <c r="E133" s="5"/>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A134" s="24">
+      <c r="A134" s="21">
         <v>64</v>
       </c>
-      <c r="B134" s="18" t="s">
+      <c r="B134" s="20" t="s">
         <v>143</v>
       </c>
       <c r="C134" t="s">
@@ -2710,18 +2710,18 @@
       <c r="E134" s="5"/>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A135" s="24"/>
-      <c r="B135" s="18"/>
+      <c r="A135" s="21"/>
+      <c r="B135" s="20"/>
       <c r="C135" t="s">
         <v>93</v>
       </c>
       <c r="E135" s="5"/>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A136" s="24">
+      <c r="A136" s="21">
         <v>65</v>
       </c>
-      <c r="B136" s="18" t="s">
+      <c r="B136" s="20" t="s">
         <v>147</v>
       </c>
       <c r="C136" t="s">
@@ -2730,18 +2730,18 @@
       <c r="E136" s="5"/>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A137" s="24"/>
-      <c r="B137" s="18"/>
+      <c r="A137" s="21"/>
+      <c r="B137" s="20"/>
       <c r="C137" t="s">
         <v>93</v>
       </c>
       <c r="E137" s="5"/>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A138" s="18">
+      <c r="A138" s="20">
         <v>66</v>
       </c>
-      <c r="B138" s="18" t="s">
+      <c r="B138" s="20" t="s">
         <v>145</v>
       </c>
       <c r="C138" t="s">
@@ -2750,24 +2750,24 @@
       <c r="E138" s="5"/>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A139" s="18"/>
-      <c r="B139" s="18"/>
+      <c r="A139" s="20"/>
+      <c r="B139" s="20"/>
       <c r="C139" t="s">
         <v>50</v>
       </c>
       <c r="E139" s="5"/>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A140" s="18"/>
-      <c r="B140" s="18"/>
+      <c r="A140" s="20"/>
+      <c r="B140" s="20"/>
       <c r="C140" t="s">
         <v>52</v>
       </c>
       <c r="E140" s="5"/>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A141" s="18"/>
-      <c r="B141" s="18"/>
+      <c r="A141" s="20"/>
+      <c r="B141" s="20"/>
       <c r="C141" t="s">
         <v>51</v>
       </c>
@@ -2786,10 +2786,10 @@
       <c r="E142" s="5"/>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A143" s="18">
+      <c r="A143" s="20">
         <v>68</v>
       </c>
-      <c r="B143" s="18" t="s">
+      <c r="B143" s="20" t="s">
         <v>82</v>
       </c>
       <c r="C143" t="s">
@@ -2798,15 +2798,15 @@
       <c r="E143" s="5"/>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A144" s="18"/>
-      <c r="B144" s="18"/>
+      <c r="A144" s="20"/>
+      <c r="B144" s="20"/>
       <c r="C144" t="s">
         <v>78</v>
       </c>
       <c r="E144" s="5"/>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A145" s="23">
+      <c r="A145" s="18">
         <v>69</v>
       </c>
       <c r="B145" s="3" t="s">
@@ -2818,10 +2818,10 @@
       <c r="E145" s="5"/>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A146" s="24">
+      <c r="A146" s="21">
         <v>70</v>
       </c>
-      <c r="B146" s="18" t="s">
+      <c r="B146" s="20" t="s">
         <v>149</v>
       </c>
       <c r="C146" t="s">
@@ -2830,15 +2830,15 @@
       <c r="E146" s="5"/>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A147" s="24"/>
-      <c r="B147" s="18"/>
+      <c r="A147" s="21"/>
+      <c r="B147" s="20"/>
       <c r="C147" t="s">
         <v>93</v>
       </c>
       <c r="E147" s="5"/>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A148" s="23">
+      <c r="A148" s="18">
         <v>71</v>
       </c>
       <c r="B148" s="14" t="s">
@@ -2851,7 +2851,7 @@
       <c r="E148" s="13"/>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A149" s="23">
+      <c r="A149" s="18">
         <v>72</v>
       </c>
       <c r="B149" s="8" t="s">
@@ -2864,10 +2864,10 @@
       <c r="E149" s="16"/>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A150" s="18">
+      <c r="A150" s="20">
         <v>73</v>
       </c>
-      <c r="B150" s="18" t="s">
+      <c r="B150" s="20" t="s">
         <v>151</v>
       </c>
       <c r="C150" s="9" t="s">
@@ -2877,8 +2877,8 @@
       <c r="E150" s="10"/>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A151" s="18"/>
-      <c r="B151" s="18"/>
+      <c r="A151" s="20"/>
+      <c r="B151" s="20"/>
       <c r="C151" s="9" t="s">
         <v>93</v>
       </c>
@@ -2886,10 +2886,10 @@
       <c r="E151" s="10"/>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A152" s="18">
+      <c r="A152" s="20">
         <v>74</v>
       </c>
-      <c r="B152" s="18" t="s">
+      <c r="B152" s="20" t="s">
         <v>152</v>
       </c>
       <c r="C152" t="s">
@@ -2898,18 +2898,18 @@
       <c r="E152" s="5"/>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A153" s="18"/>
-      <c r="B153" s="18"/>
+      <c r="A153" s="20"/>
+      <c r="B153" s="20"/>
       <c r="C153" t="s">
         <v>93</v>
       </c>
       <c r="E153" s="5"/>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A154" s="18">
+      <c r="A154" s="20">
         <v>75</v>
       </c>
-      <c r="B154" s="18" t="s">
+      <c r="B154" s="20" t="s">
         <v>153</v>
       </c>
       <c r="C154" t="s">
@@ -2918,16 +2918,16 @@
       <c r="E154" s="5"/>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A155" s="18"/>
-      <c r="B155" s="18"/>
+      <c r="A155" s="20"/>
+      <c r="B155" s="20"/>
       <c r="C155" t="s">
         <v>83</v>
       </c>
       <c r="E155" s="5"/>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A156" s="18"/>
-      <c r="B156" s="18"/>
+      <c r="A156" s="20"/>
+      <c r="B156" s="20"/>
       <c r="C156" t="s">
         <v>1</v>
       </c>
@@ -2946,10 +2946,10 @@
       <c r="E157" s="5"/>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A158" s="18">
+      <c r="A158" s="20">
         <v>77</v>
       </c>
-      <c r="B158" s="18" t="s">
+      <c r="B158" s="20" t="s">
         <v>154</v>
       </c>
       <c r="C158" t="s">
@@ -2958,18 +2958,18 @@
       <c r="E158" s="5"/>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A159" s="18"/>
-      <c r="B159" s="18"/>
+      <c r="A159" s="20"/>
+      <c r="B159" s="20"/>
       <c r="C159" t="s">
         <v>93</v>
       </c>
       <c r="E159" s="5"/>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A160" s="18">
+      <c r="A160" s="20">
         <v>78</v>
       </c>
-      <c r="B160" s="18" t="s">
+      <c r="B160" s="20" t="s">
         <v>155</v>
       </c>
       <c r="C160" t="s">
@@ -2978,15 +2978,15 @@
       <c r="E160" s="5"/>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A161" s="18"/>
-      <c r="B161" s="18"/>
+      <c r="A161" s="20"/>
+      <c r="B161" s="20"/>
       <c r="C161" t="s">
         <v>86</v>
       </c>
       <c r="E161" s="5"/>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A162" s="23">
+      <c r="A162" s="18">
         <v>79</v>
       </c>
       <c r="B162" s="3" t="s">
@@ -2998,10 +2998,10 @@
       <c r="E162" s="5"/>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A163" s="18">
+      <c r="A163" s="20">
         <v>80</v>
       </c>
-      <c r="B163" s="18" t="s">
+      <c r="B163" s="20" t="s">
         <v>157</v>
       </c>
       <c r="C163" t="s">
@@ -3010,42 +3010,42 @@
       <c r="E163" s="5"/>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A164" s="18"/>
-      <c r="B164" s="18"/>
+      <c r="A164" s="20"/>
+      <c r="B164" s="20"/>
       <c r="C164" t="s">
         <v>47</v>
       </c>
       <c r="E164" s="5"/>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A165" s="18"/>
-      <c r="B165" s="18"/>
+      <c r="A165" s="20"/>
+      <c r="B165" s="20"/>
       <c r="C165" t="s">
         <v>158</v>
       </c>
       <c r="E165" s="5"/>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A166" s="18"/>
-      <c r="B166" s="18"/>
+      <c r="A166" s="20"/>
+      <c r="B166" s="20"/>
       <c r="C166" t="s">
         <v>87</v>
       </c>
       <c r="E166" s="5"/>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A167" s="18"/>
-      <c r="B167" s="18"/>
+      <c r="A167" s="20"/>
+      <c r="B167" s="20"/>
       <c r="C167" t="s">
         <v>201</v>
       </c>
       <c r="E167" s="5"/>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A168" s="18">
+      <c r="A168" s="20">
         <v>81</v>
       </c>
-      <c r="B168" s="18" t="s">
+      <c r="B168" s="20" t="s">
         <v>159</v>
       </c>
       <c r="C168" t="s">
@@ -3054,8 +3054,8 @@
       <c r="E168" s="5"/>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A169" s="18"/>
-      <c r="B169" s="18"/>
+      <c r="A169" s="20"/>
+      <c r="B169" s="20"/>
       <c r="C169" t="s">
         <v>87</v>
       </c>
@@ -3074,10 +3074,10 @@
       <c r="E170" s="5"/>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A171" s="18">
+      <c r="A171" s="20">
         <v>83</v>
       </c>
-      <c r="B171" s="18" t="s">
+      <c r="B171" s="20" t="s">
         <v>163</v>
       </c>
       <c r="C171" t="s">
@@ -3086,18 +3086,18 @@
       <c r="E171" s="5"/>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A172" s="18"/>
-      <c r="B172" s="18"/>
+      <c r="A172" s="20"/>
+      <c r="B172" s="20"/>
       <c r="C172" t="s">
         <v>201</v>
       </c>
       <c r="E172" s="5"/>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A173" s="18">
+      <c r="A173" s="20">
         <v>84</v>
       </c>
-      <c r="B173" s="18" t="s">
+      <c r="B173" s="20" t="s">
         <v>164</v>
       </c>
       <c r="C173" t="s">
@@ -3106,18 +3106,18 @@
       <c r="E173" s="5"/>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A174" s="18"/>
-      <c r="B174" s="18"/>
+      <c r="A174" s="20"/>
+      <c r="B174" s="20"/>
       <c r="C174" t="s">
         <v>47</v>
       </c>
       <c r="E174" s="5"/>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A175" s="18">
+      <c r="A175" s="20">
         <v>85</v>
       </c>
-      <c r="B175" s="18" t="s">
+      <c r="B175" s="20" t="s">
         <v>95</v>
       </c>
       <c r="C175" t="s">
@@ -3126,26 +3126,26 @@
       <c r="E175" s="5"/>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A176" s="18"/>
-      <c r="B176" s="18"/>
+      <c r="A176" s="20"/>
+      <c r="B176" s="20"/>
       <c r="C176" t="s">
         <v>94</v>
       </c>
       <c r="E176" s="5"/>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A177" s="18"/>
-      <c r="B177" s="18"/>
+      <c r="A177" s="20"/>
+      <c r="B177" s="20"/>
       <c r="C177" t="s">
         <v>51</v>
       </c>
       <c r="E177" s="5"/>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A178" s="18">
+      <c r="A178" s="20">
         <v>86</v>
       </c>
-      <c r="B178" s="18" t="s">
+      <c r="B178" s="20" t="s">
         <v>94</v>
       </c>
       <c r="C178" t="s">
@@ -3154,8 +3154,8 @@
       <c r="E178" s="5"/>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A179" s="18"/>
-      <c r="B179" s="18"/>
+      <c r="A179" s="20"/>
+      <c r="B179" s="20"/>
       <c r="C179" t="s">
         <v>93</v>
       </c>
@@ -3163,6 +3163,97 @@
     </row>
   </sheetData>
   <mergeCells count="115">
+    <mergeCell ref="E42:E43"/>
+    <mergeCell ref="E45:E46"/>
+    <mergeCell ref="E48:E49"/>
+    <mergeCell ref="E51:E52"/>
+    <mergeCell ref="E53:E56"/>
+    <mergeCell ref="E5:E14"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="E15:E17"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="E21:E31"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="E34:E36"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="B178:B179"/>
+    <mergeCell ref="B175:B177"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="B34:B36"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="B88:B90"/>
+    <mergeCell ref="B91:B92"/>
+    <mergeCell ref="B94:B95"/>
+    <mergeCell ref="B61:B62"/>
+    <mergeCell ref="B63:B64"/>
+    <mergeCell ref="B70:B71"/>
+    <mergeCell ref="B72:B74"/>
+    <mergeCell ref="B66:B69"/>
+    <mergeCell ref="B98:B99"/>
+    <mergeCell ref="B100:B101"/>
+    <mergeCell ref="B168:B169"/>
+    <mergeCell ref="B171:B172"/>
+    <mergeCell ref="B173:B174"/>
+    <mergeCell ref="B143:B144"/>
+    <mergeCell ref="B146:B147"/>
+    <mergeCell ref="B150:B151"/>
+    <mergeCell ref="B103:B104"/>
+    <mergeCell ref="B105:B106"/>
+    <mergeCell ref="B108:B109"/>
+    <mergeCell ref="B110:B111"/>
+    <mergeCell ref="B113:B114"/>
+    <mergeCell ref="B80:B81"/>
+    <mergeCell ref="B82:B83"/>
+    <mergeCell ref="B84:B85"/>
+    <mergeCell ref="B77:B79"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="B48:B49"/>
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="B53:B56"/>
+    <mergeCell ref="B57:B60"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="A21:A31"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="A53:A56"/>
+    <mergeCell ref="B158:B159"/>
+    <mergeCell ref="B160:B161"/>
+    <mergeCell ref="B163:B167"/>
+    <mergeCell ref="B126:B127"/>
+    <mergeCell ref="B130:B131"/>
+    <mergeCell ref="B134:B135"/>
+    <mergeCell ref="B138:B141"/>
+    <mergeCell ref="B136:B137"/>
+    <mergeCell ref="B117:B119"/>
+    <mergeCell ref="B152:B153"/>
+    <mergeCell ref="B154:B156"/>
+    <mergeCell ref="A57:A60"/>
+    <mergeCell ref="A61:A62"/>
+    <mergeCell ref="A63:A64"/>
+    <mergeCell ref="A66:A69"/>
+    <mergeCell ref="A70:A71"/>
+    <mergeCell ref="A34:A36"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="A48:A49"/>
+    <mergeCell ref="A51:A52"/>
+    <mergeCell ref="A94:A95"/>
+    <mergeCell ref="A103:A104"/>
+    <mergeCell ref="A105:A106"/>
+    <mergeCell ref="A108:A109"/>
+    <mergeCell ref="A110:A111"/>
+    <mergeCell ref="A72:A74"/>
+    <mergeCell ref="A77:A79"/>
+    <mergeCell ref="A80:A81"/>
+    <mergeCell ref="A82:A83"/>
+    <mergeCell ref="A84:A85"/>
+    <mergeCell ref="A88:A90"/>
     <mergeCell ref="B4:B14"/>
     <mergeCell ref="A4:A14"/>
     <mergeCell ref="B20:B31"/>
@@ -3187,97 +3278,6 @@
     <mergeCell ref="A130:A131"/>
     <mergeCell ref="A134:A135"/>
     <mergeCell ref="A91:A92"/>
-    <mergeCell ref="A94:A95"/>
-    <mergeCell ref="A103:A104"/>
-    <mergeCell ref="A105:A106"/>
-    <mergeCell ref="A108:A109"/>
-    <mergeCell ref="A110:A111"/>
-    <mergeCell ref="A72:A74"/>
-    <mergeCell ref="A77:A79"/>
-    <mergeCell ref="A80:A81"/>
-    <mergeCell ref="A82:A83"/>
-    <mergeCell ref="A84:A85"/>
-    <mergeCell ref="A88:A90"/>
-    <mergeCell ref="A57:A60"/>
-    <mergeCell ref="A61:A62"/>
-    <mergeCell ref="A63:A64"/>
-    <mergeCell ref="A66:A69"/>
-    <mergeCell ref="A70:A71"/>
-    <mergeCell ref="A34:A36"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="A48:A49"/>
-    <mergeCell ref="A51:A52"/>
-    <mergeCell ref="B158:B159"/>
-    <mergeCell ref="B160:B161"/>
-    <mergeCell ref="B163:B167"/>
-    <mergeCell ref="B126:B127"/>
-    <mergeCell ref="B130:B131"/>
-    <mergeCell ref="B134:B135"/>
-    <mergeCell ref="B138:B141"/>
-    <mergeCell ref="B136:B137"/>
-    <mergeCell ref="B117:B119"/>
-    <mergeCell ref="B152:B153"/>
-    <mergeCell ref="B154:B156"/>
-    <mergeCell ref="B42:B43"/>
-    <mergeCell ref="B45:B46"/>
-    <mergeCell ref="B48:B49"/>
-    <mergeCell ref="B51:B52"/>
-    <mergeCell ref="B53:B56"/>
-    <mergeCell ref="B57:B60"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A15:A17"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="A21:A31"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="B103:B104"/>
-    <mergeCell ref="B105:B106"/>
-    <mergeCell ref="B108:B109"/>
-    <mergeCell ref="B110:B111"/>
-    <mergeCell ref="B113:B114"/>
-    <mergeCell ref="B80:B81"/>
-    <mergeCell ref="B82:B83"/>
-    <mergeCell ref="B84:B85"/>
-    <mergeCell ref="B77:B79"/>
-    <mergeCell ref="A53:A56"/>
-    <mergeCell ref="B178:B179"/>
-    <mergeCell ref="B175:B177"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="B34:B36"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="B88:B90"/>
-    <mergeCell ref="B91:B92"/>
-    <mergeCell ref="B94:B95"/>
-    <mergeCell ref="B61:B62"/>
-    <mergeCell ref="B63:B64"/>
-    <mergeCell ref="B70:B71"/>
-    <mergeCell ref="B72:B74"/>
-    <mergeCell ref="B66:B69"/>
-    <mergeCell ref="B98:B99"/>
-    <mergeCell ref="B100:B101"/>
-    <mergeCell ref="B168:B169"/>
-    <mergeCell ref="B171:B172"/>
-    <mergeCell ref="B173:B174"/>
-    <mergeCell ref="B143:B144"/>
-    <mergeCell ref="B146:B147"/>
-    <mergeCell ref="B150:B151"/>
-    <mergeCell ref="E42:E43"/>
-    <mergeCell ref="E45:E46"/>
-    <mergeCell ref="E48:E49"/>
-    <mergeCell ref="E51:E52"/>
-    <mergeCell ref="E53:E56"/>
-    <mergeCell ref="E5:E14"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="E15:E17"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="E21:E31"/>
-    <mergeCell ref="E32:E33"/>
-    <mergeCell ref="E34:E36"/>
-    <mergeCell ref="E39:E40"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
